--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/020_共通コンポーネント設計/共通コンポーネント設計書_CPS0001_共通エラー応答電文作成.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/020_共通コンポーネント設計/共通コンポーネント設計書_CPS0001_共通エラー応答電文作成.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298145AC-726E-4074-9320-7E2D2B1A8810}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E40DF9-606F-4DBD-B3E7-D40DA4C9855E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,16 +691,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>コンフィグ定義されたレスポンスを書きだすコンバータを保持する。</t>
-    <rPh sb="5" eb="7">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>1.  共通エラー応答電文作成</t>
   </si>
   <si>
@@ -738,6 +728,16 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>指定されたレスポンスを書きだすコンバータを保持する。</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホジ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1407,6 +1407,84 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1521,83 +1599,71 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1608,71 +1674,146 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1685,147 +1826,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3293,57 +3293,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="124" t="s">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="131" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="140" t="s">
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="121" t="s">
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="149" t="str">
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="175" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="150"/>
-      <c r="AE1" s="150"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="114">
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="140">
         <f>IF(D8="","",D8)</f>
         <v>44825</v>
       </c>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="116"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="142"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -3351,53 +3351,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="121" t="s">
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="127" t="str">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="153" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="114" t="str">
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="140" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="116"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -3405,45 +3405,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="124" t="s">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="147"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="151"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="116"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="141"/>
+      <c r="AI3" s="142"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -3480,1190 +3480,1034 @@
       <c r="A7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="117" t="s">
+      <c r="C7" s="144"/>
+      <c r="D7" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="117" t="s">
+      <c r="E7" s="145"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="120" t="s">
+      <c r="H7" s="145"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="117" t="s">
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="118"/>
-      <c r="AF7" s="117" t="s">
+      <c r="R7" s="145"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="145"/>
+      <c r="W7" s="145"/>
+      <c r="X7" s="145"/>
+      <c r="Y7" s="145"/>
+      <c r="Z7" s="145"/>
+      <c r="AA7" s="145"/>
+      <c r="AB7" s="145"/>
+      <c r="AC7" s="145"/>
+      <c r="AD7" s="145"/>
+      <c r="AE7" s="144"/>
+      <c r="AF7" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="118"/>
+      <c r="AG7" s="145"/>
+      <c r="AH7" s="145"/>
+      <c r="AI7" s="144"/>
     </row>
     <row r="8" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="79">
         <v>1</v>
       </c>
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="166">
+      <c r="C8" s="128"/>
+      <c r="D8" s="129">
         <v>44825</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169" t="s">
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="170"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="171" t="s">
+      <c r="H8" s="133"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="174" t="s">
+      <c r="K8" s="135"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="176"/>
-      <c r="AF8" s="171" t="s">
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="138"/>
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="138"/>
+      <c r="AC8" s="138"/>
+      <c r="AD8" s="138"/>
+      <c r="AE8" s="139"/>
+      <c r="AF8" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="AG8" s="172"/>
-      <c r="AH8" s="172"/>
-      <c r="AI8" s="173"/>
+      <c r="AG8" s="135"/>
+      <c r="AH8" s="135"/>
+      <c r="AI8" s="136"/>
     </row>
     <row r="9" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="80"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="162"/>
-      <c r="U9" s="162"/>
-      <c r="V9" s="162"/>
-      <c r="W9" s="162"/>
-      <c r="X9" s="162"/>
-      <c r="Y9" s="162"/>
-      <c r="Z9" s="162"/>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="162"/>
-      <c r="AC9" s="162"/>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="163"/>
-      <c r="AF9" s="158"/>
-      <c r="AG9" s="159"/>
-      <c r="AH9" s="159"/>
-      <c r="AI9" s="160"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="124"/>
+      <c r="AD9" s="124"/>
+      <c r="AE9" s="125"/>
+      <c r="AF9" s="120"/>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="121"/>
+      <c r="AI9" s="122"/>
     </row>
     <row r="10" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="80"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="162"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="162"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="162"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="162"/>
-      <c r="AD10" s="162"/>
-      <c r="AE10" s="163"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="159"/>
-      <c r="AH10" s="159"/>
-      <c r="AI10" s="160"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="125"/>
+      <c r="AF10" s="120"/>
+      <c r="AG10" s="121"/>
+      <c r="AH10" s="121"/>
+      <c r="AI10" s="122"/>
     </row>
     <row r="11" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="80"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="162"/>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="163"/>
-      <c r="AF11" s="158"/>
-      <c r="AG11" s="159"/>
-      <c r="AH11" s="159"/>
-      <c r="AI11" s="160"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="125"/>
+      <c r="AF11" s="120"/>
+      <c r="AG11" s="121"/>
+      <c r="AH11" s="121"/>
+      <c r="AI11" s="122"/>
     </row>
     <row r="12" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="80"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="162"/>
-      <c r="U12" s="162"/>
-      <c r="V12" s="162"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="163"/>
-      <c r="AF12" s="158"/>
-      <c r="AG12" s="159"/>
-      <c r="AH12" s="159"/>
-      <c r="AI12" s="160"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="125"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="122"/>
     </row>
     <row r="13" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="80"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
-      <c r="O13" s="159"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="162"/>
-      <c r="U13" s="162"/>
-      <c r="V13" s="162"/>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="162"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="163"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="159"/>
-      <c r="AH13" s="159"/>
-      <c r="AI13" s="160"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="125"/>
+      <c r="AF13" s="120"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="122"/>
     </row>
     <row r="14" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="80"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="162"/>
-      <c r="U14" s="162"/>
-      <c r="V14" s="162"/>
-      <c r="W14" s="162"/>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="162"/>
-      <c r="Z14" s="162"/>
-      <c r="AA14" s="162"/>
-      <c r="AB14" s="162"/>
-      <c r="AC14" s="162"/>
-      <c r="AD14" s="162"/>
-      <c r="AE14" s="163"/>
-      <c r="AF14" s="158"/>
-      <c r="AG14" s="159"/>
-      <c r="AH14" s="159"/>
-      <c r="AI14" s="160"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="124"/>
+      <c r="AE14" s="125"/>
+      <c r="AF14" s="120"/>
+      <c r="AG14" s="121"/>
+      <c r="AH14" s="121"/>
+      <c r="AI14" s="122"/>
     </row>
     <row r="15" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="80"/>
-      <c r="B15" s="152"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="162"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="163"/>
-      <c r="AF15" s="158"/>
-      <c r="AG15" s="159"/>
-      <c r="AH15" s="159"/>
-      <c r="AI15" s="160"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="125"/>
+      <c r="AF15" s="120"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="122"/>
     </row>
     <row r="16" spans="1:40" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="80"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="159"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="162"/>
-      <c r="U16" s="162"/>
-      <c r="V16" s="162"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="163"/>
-      <c r="AF16" s="158"/>
-      <c r="AG16" s="159"/>
-      <c r="AH16" s="159"/>
-      <c r="AI16" s="160"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="124"/>
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="124"/>
+      <c r="AC16" s="124"/>
+      <c r="AD16" s="124"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="120"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="122"/>
     </row>
     <row r="17" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="80"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="159"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="162"/>
-      <c r="U17" s="162"/>
-      <c r="V17" s="162"/>
-      <c r="W17" s="162"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="162"/>
-      <c r="Z17" s="162"/>
-      <c r="AA17" s="162"/>
-      <c r="AB17" s="162"/>
-      <c r="AC17" s="162"/>
-      <c r="AD17" s="162"/>
-      <c r="AE17" s="163"/>
-      <c r="AF17" s="158"/>
-      <c r="AG17" s="159"/>
-      <c r="AH17" s="159"/>
-      <c r="AI17" s="160"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="124"/>
+      <c r="AE17" s="125"/>
+      <c r="AF17" s="120"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="122"/>
     </row>
     <row r="18" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="80"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="162"/>
-      <c r="U18" s="162"/>
-      <c r="V18" s="162"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="162"/>
-      <c r="AC18" s="162"/>
-      <c r="AD18" s="162"/>
-      <c r="AE18" s="163"/>
-      <c r="AF18" s="158"/>
-      <c r="AG18" s="159"/>
-      <c r="AH18" s="159"/>
-      <c r="AI18" s="160"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="124"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="125"/>
+      <c r="AF18" s="120"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="121"/>
+      <c r="AI18" s="122"/>
     </row>
     <row r="19" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="80"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="162"/>
-      <c r="U19" s="162"/>
-      <c r="V19" s="162"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
-      <c r="Y19" s="162"/>
-      <c r="Z19" s="162"/>
-      <c r="AA19" s="162"/>
-      <c r="AB19" s="162"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="162"/>
-      <c r="AE19" s="163"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="159"/>
-      <c r="AH19" s="159"/>
-      <c r="AI19" s="160"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="125"/>
+      <c r="AF19" s="120"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="121"/>
+      <c r="AI19" s="122"/>
     </row>
     <row r="20" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="80"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="159"/>
-      <c r="N20" s="159"/>
-      <c r="O20" s="159"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="162"/>
-      <c r="U20" s="162"/>
-      <c r="V20" s="162"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
-      <c r="Y20" s="162"/>
-      <c r="Z20" s="162"/>
-      <c r="AA20" s="162"/>
-      <c r="AB20" s="162"/>
-      <c r="AC20" s="162"/>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="163"/>
-      <c r="AF20" s="158"/>
-      <c r="AG20" s="159"/>
-      <c r="AH20" s="159"/>
-      <c r="AI20" s="160"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="124"/>
+      <c r="X20" s="124"/>
+      <c r="Y20" s="124"/>
+      <c r="Z20" s="124"/>
+      <c r="AA20" s="124"/>
+      <c r="AB20" s="124"/>
+      <c r="AC20" s="124"/>
+      <c r="AD20" s="124"/>
+      <c r="AE20" s="125"/>
+      <c r="AF20" s="120"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="122"/>
     </row>
     <row r="21" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="80"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="162"/>
-      <c r="T21" s="162"/>
-      <c r="U21" s="162"/>
-      <c r="V21" s="162"/>
-      <c r="W21" s="162"/>
-      <c r="X21" s="162"/>
-      <c r="Y21" s="162"/>
-      <c r="Z21" s="162"/>
-      <c r="AA21" s="162"/>
-      <c r="AB21" s="162"/>
-      <c r="AC21" s="162"/>
-      <c r="AD21" s="162"/>
-      <c r="AE21" s="163"/>
-      <c r="AF21" s="158"/>
-      <c r="AG21" s="159"/>
-      <c r="AH21" s="159"/>
-      <c r="AI21" s="160"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="124"/>
+      <c r="AB21" s="124"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="125"/>
+      <c r="AF21" s="120"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="122"/>
     </row>
     <row r="22" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="80"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="162"/>
-      <c r="V22" s="162"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="162"/>
-      <c r="Z22" s="162"/>
-      <c r="AA22" s="162"/>
-      <c r="AB22" s="162"/>
-      <c r="AC22" s="162"/>
-      <c r="AD22" s="162"/>
-      <c r="AE22" s="163"/>
-      <c r="AF22" s="158"/>
-      <c r="AG22" s="159"/>
-      <c r="AH22" s="159"/>
-      <c r="AI22" s="160"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="124"/>
+      <c r="Z22" s="124"/>
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="124"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="124"/>
+      <c r="AE22" s="125"/>
+      <c r="AF22" s="120"/>
+      <c r="AG22" s="121"/>
+      <c r="AH22" s="121"/>
+      <c r="AI22" s="122"/>
     </row>
     <row r="23" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="80"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="162"/>
-      <c r="S23" s="162"/>
-      <c r="T23" s="162"/>
-      <c r="U23" s="162"/>
-      <c r="V23" s="162"/>
-      <c r="W23" s="162"/>
-      <c r="X23" s="162"/>
-      <c r="Y23" s="162"/>
-      <c r="Z23" s="162"/>
-      <c r="AA23" s="162"/>
-      <c r="AB23" s="162"/>
-      <c r="AC23" s="162"/>
-      <c r="AD23" s="162"/>
-      <c r="AE23" s="163"/>
-      <c r="AF23" s="158"/>
-      <c r="AG23" s="159"/>
-      <c r="AH23" s="159"/>
-      <c r="AI23" s="160"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="124"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="125"/>
+      <c r="AF23" s="120"/>
+      <c r="AG23" s="121"/>
+      <c r="AH23" s="121"/>
+      <c r="AI23" s="122"/>
     </row>
     <row r="24" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="80"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="159"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="162"/>
-      <c r="S24" s="162"/>
-      <c r="T24" s="162"/>
-      <c r="U24" s="162"/>
-      <c r="V24" s="162"/>
-      <c r="W24" s="162"/>
-      <c r="X24" s="162"/>
-      <c r="Y24" s="162"/>
-      <c r="Z24" s="162"/>
-      <c r="AA24" s="162"/>
-      <c r="AB24" s="162"/>
-      <c r="AC24" s="162"/>
-      <c r="AD24" s="162"/>
-      <c r="AE24" s="163"/>
-      <c r="AF24" s="158"/>
-      <c r="AG24" s="159"/>
-      <c r="AH24" s="159"/>
-      <c r="AI24" s="160"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="124"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="124"/>
+      <c r="U24" s="124"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="124"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="124"/>
+      <c r="Z24" s="124"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="124"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="124"/>
+      <c r="AE24" s="125"/>
+      <c r="AF24" s="120"/>
+      <c r="AG24" s="121"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="122"/>
     </row>
     <row r="25" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="80"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159"/>
-      <c r="O25" s="159"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="162"/>
-      <c r="S25" s="162"/>
-      <c r="T25" s="162"/>
-      <c r="U25" s="162"/>
-      <c r="V25" s="162"/>
-      <c r="W25" s="162"/>
-      <c r="X25" s="162"/>
-      <c r="Y25" s="162"/>
-      <c r="Z25" s="162"/>
-      <c r="AA25" s="162"/>
-      <c r="AB25" s="162"/>
-      <c r="AC25" s="162"/>
-      <c r="AD25" s="162"/>
-      <c r="AE25" s="163"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="159"/>
-      <c r="AH25" s="159"/>
-      <c r="AI25" s="160"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="124"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="125"/>
+      <c r="AF25" s="120"/>
+      <c r="AG25" s="121"/>
+      <c r="AH25" s="121"/>
+      <c r="AI25" s="122"/>
     </row>
     <row r="26" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="80"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="162"/>
-      <c r="S26" s="162"/>
-      <c r="T26" s="162"/>
-      <c r="U26" s="162"/>
-      <c r="V26" s="162"/>
-      <c r="W26" s="162"/>
-      <c r="X26" s="162"/>
-      <c r="Y26" s="162"/>
-      <c r="Z26" s="162"/>
-      <c r="AA26" s="162"/>
-      <c r="AB26" s="162"/>
-      <c r="AC26" s="162"/>
-      <c r="AD26" s="162"/>
-      <c r="AE26" s="163"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="160"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="124"/>
+      <c r="S26" s="124"/>
+      <c r="T26" s="124"/>
+      <c r="U26" s="124"/>
+      <c r="V26" s="124"/>
+      <c r="W26" s="124"/>
+      <c r="X26" s="124"/>
+      <c r="Y26" s="124"/>
+      <c r="Z26" s="124"/>
+      <c r="AA26" s="124"/>
+      <c r="AB26" s="124"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="124"/>
+      <c r="AE26" s="125"/>
+      <c r="AF26" s="120"/>
+      <c r="AG26" s="121"/>
+      <c r="AH26" s="121"/>
+      <c r="AI26" s="122"/>
     </row>
     <row r="27" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="80"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="162"/>
-      <c r="T27" s="162"/>
-      <c r="U27" s="162"/>
-      <c r="V27" s="162"/>
-      <c r="W27" s="162"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="162"/>
-      <c r="Z27" s="162"/>
-      <c r="AA27" s="162"/>
-      <c r="AB27" s="162"/>
-      <c r="AC27" s="162"/>
-      <c r="AD27" s="162"/>
-      <c r="AE27" s="163"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="159"/>
-      <c r="AH27" s="159"/>
-      <c r="AI27" s="160"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="124"/>
+      <c r="S27" s="124"/>
+      <c r="T27" s="124"/>
+      <c r="U27" s="124"/>
+      <c r="V27" s="124"/>
+      <c r="W27" s="124"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124"/>
+      <c r="Z27" s="124"/>
+      <c r="AA27" s="124"/>
+      <c r="AB27" s="124"/>
+      <c r="AC27" s="124"/>
+      <c r="AD27" s="124"/>
+      <c r="AE27" s="125"/>
+      <c r="AF27" s="120"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="122"/>
     </row>
     <row r="28" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="80"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="162"/>
-      <c r="T28" s="162"/>
-      <c r="U28" s="162"/>
-      <c r="V28" s="162"/>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="162"/>
-      <c r="Z28" s="162"/>
-      <c r="AA28" s="162"/>
-      <c r="AB28" s="162"/>
-      <c r="AC28" s="162"/>
-      <c r="AD28" s="162"/>
-      <c r="AE28" s="163"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="159"/>
-      <c r="AH28" s="159"/>
-      <c r="AI28" s="160"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="124"/>
+      <c r="S28" s="124"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="124"/>
+      <c r="V28" s="124"/>
+      <c r="W28" s="124"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="124"/>
+      <c r="Z28" s="124"/>
+      <c r="AA28" s="124"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="124"/>
+      <c r="AE28" s="125"/>
+      <c r="AF28" s="120"/>
+      <c r="AG28" s="121"/>
+      <c r="AH28" s="121"/>
+      <c r="AI28" s="122"/>
     </row>
     <row r="29" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="80"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="162"/>
-      <c r="S29" s="162"/>
-      <c r="T29" s="162"/>
-      <c r="U29" s="162"/>
-      <c r="V29" s="162"/>
-      <c r="W29" s="162"/>
-      <c r="X29" s="162"/>
-      <c r="Y29" s="162"/>
-      <c r="Z29" s="162"/>
-      <c r="AA29" s="162"/>
-      <c r="AB29" s="162"/>
-      <c r="AC29" s="162"/>
-      <c r="AD29" s="162"/>
-      <c r="AE29" s="163"/>
-      <c r="AF29" s="158"/>
-      <c r="AG29" s="159"/>
-      <c r="AH29" s="159"/>
-      <c r="AI29" s="160"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="124"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="124"/>
+      <c r="Z29" s="124"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="124"/>
+      <c r="AC29" s="124"/>
+      <c r="AD29" s="124"/>
+      <c r="AE29" s="125"/>
+      <c r="AF29" s="120"/>
+      <c r="AG29" s="121"/>
+      <c r="AH29" s="121"/>
+      <c r="AI29" s="122"/>
     </row>
     <row r="30" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="80"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="162"/>
-      <c r="S30" s="162"/>
-      <c r="T30" s="162"/>
-      <c r="U30" s="162"/>
-      <c r="V30" s="162"/>
-      <c r="W30" s="162"/>
-      <c r="X30" s="162"/>
-      <c r="Y30" s="162"/>
-      <c r="Z30" s="162"/>
-      <c r="AA30" s="162"/>
-      <c r="AB30" s="162"/>
-      <c r="AC30" s="162"/>
-      <c r="AD30" s="162"/>
-      <c r="AE30" s="163"/>
-      <c r="AF30" s="158"/>
-      <c r="AG30" s="159"/>
-      <c r="AH30" s="159"/>
-      <c r="AI30" s="160"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="124"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="124"/>
+      <c r="Z30" s="124"/>
+      <c r="AA30" s="124"/>
+      <c r="AB30" s="124"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="124"/>
+      <c r="AE30" s="125"/>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="121"/>
+      <c r="AI30" s="122"/>
     </row>
     <row r="31" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="80"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="159"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="159"/>
-      <c r="O31" s="159"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="162"/>
-      <c r="S31" s="162"/>
-      <c r="T31" s="162"/>
-      <c r="U31" s="162"/>
-      <c r="V31" s="162"/>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="162"/>
-      <c r="Z31" s="162"/>
-      <c r="AA31" s="162"/>
-      <c r="AB31" s="162"/>
-      <c r="AC31" s="162"/>
-      <c r="AD31" s="162"/>
-      <c r="AE31" s="163"/>
-      <c r="AF31" s="158"/>
-      <c r="AG31" s="159"/>
-      <c r="AH31" s="159"/>
-      <c r="AI31" s="160"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="124"/>
+      <c r="S31" s="124"/>
+      <c r="T31" s="124"/>
+      <c r="U31" s="124"/>
+      <c r="V31" s="124"/>
+      <c r="W31" s="124"/>
+      <c r="X31" s="124"/>
+      <c r="Y31" s="124"/>
+      <c r="Z31" s="124"/>
+      <c r="AA31" s="124"/>
+      <c r="AB31" s="124"/>
+      <c r="AC31" s="124"/>
+      <c r="AD31" s="124"/>
+      <c r="AE31" s="125"/>
+      <c r="AF31" s="120"/>
+      <c r="AG31" s="121"/>
+      <c r="AH31" s="121"/>
+      <c r="AI31" s="122"/>
     </row>
     <row r="32" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="80"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="162"/>
-      <c r="T32" s="162"/>
-      <c r="U32" s="162"/>
-      <c r="V32" s="162"/>
-      <c r="W32" s="162"/>
-      <c r="X32" s="162"/>
-      <c r="Y32" s="162"/>
-      <c r="Z32" s="162"/>
-      <c r="AA32" s="162"/>
-      <c r="AB32" s="162"/>
-      <c r="AC32" s="162"/>
-      <c r="AD32" s="162"/>
-      <c r="AE32" s="163"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="159"/>
-      <c r="AH32" s="159"/>
-      <c r="AI32" s="160"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="124"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="124"/>
+      <c r="U32" s="124"/>
+      <c r="V32" s="124"/>
+      <c r="W32" s="124"/>
+      <c r="X32" s="124"/>
+      <c r="Y32" s="124"/>
+      <c r="Z32" s="124"/>
+      <c r="AA32" s="124"/>
+      <c r="AB32" s="124"/>
+      <c r="AC32" s="124"/>
+      <c r="AD32" s="124"/>
+      <c r="AE32" s="125"/>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="121"/>
+      <c r="AH32" s="121"/>
+      <c r="AI32" s="122"/>
     </row>
     <row r="33" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="80"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="159"/>
-      <c r="O33" s="159"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="162"/>
-      <c r="S33" s="162"/>
-      <c r="T33" s="162"/>
-      <c r="U33" s="162"/>
-      <c r="V33" s="162"/>
-      <c r="W33" s="162"/>
-      <c r="X33" s="162"/>
-      <c r="Y33" s="162"/>
-      <c r="Z33" s="162"/>
-      <c r="AA33" s="162"/>
-      <c r="AB33" s="162"/>
-      <c r="AC33" s="162"/>
-      <c r="AD33" s="162"/>
-      <c r="AE33" s="163"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="159"/>
-      <c r="AH33" s="159"/>
-      <c r="AI33" s="160"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="124"/>
+      <c r="S33" s="124"/>
+      <c r="T33" s="124"/>
+      <c r="U33" s="124"/>
+      <c r="V33" s="124"/>
+      <c r="W33" s="124"/>
+      <c r="X33" s="124"/>
+      <c r="Y33" s="124"/>
+      <c r="Z33" s="124"/>
+      <c r="AA33" s="124"/>
+      <c r="AB33" s="124"/>
+      <c r="AC33" s="124"/>
+      <c r="AD33" s="124"/>
+      <c r="AE33" s="125"/>
+      <c r="AF33" s="120"/>
+      <c r="AG33" s="121"/>
+      <c r="AH33" s="121"/>
+      <c r="AI33" s="122"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4687,6 +4531,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -4843,164 +4843,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="183"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="180"/>
       <c r="E1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="185" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="194" t="str">
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="191" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>共通コンポーネント設計書
 共通エラー応答電文作成</v>
       </c>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="196"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="192"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="192"/>
+      <c r="W1" s="192"/>
+      <c r="X1" s="192"/>
+      <c r="Y1" s="192"/>
+      <c r="Z1" s="193"/>
+      <c r="AA1" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="149" t="str">
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="150"/>
-      <c r="AE1" s="150"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="178">
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="200">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH1" s="179"/>
-      <c r="AI1" s="180"/>
+      <c r="AH1" s="201"/>
+      <c r="AI1" s="202"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="183"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
       <c r="E2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="149" t="str">
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="178" t="str">
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="176"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="180"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="183"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="180"/>
       <c r="E3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="200"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="201"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="149" t="str">
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="198"/>
+      <c r="U3" s="198"/>
+      <c r="V3" s="198"/>
+      <c r="W3" s="198"/>
+      <c r="X3" s="198"/>
+      <c r="Y3" s="198"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="151"/>
-      <c r="AG3" s="178" t="str">
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="180"/>
+      <c r="AH3" s="201"/>
+      <c r="AI3" s="202"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5121,7 +5121,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
       <c r="B7" s="78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -6463,6 +6463,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6472,14 +6480,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6506,777 +6506,777 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="183"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="180"/>
       <c r="E1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="245" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="246"/>
-      <c r="Q1" s="246"/>
-      <c r="R1" s="247"/>
-      <c r="S1" s="194" t="str">
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="191" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>共通コンポーネント設計書
 共通エラー応答電文作成</v>
       </c>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="196"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="192"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="192"/>
+      <c r="W1" s="192"/>
+      <c r="X1" s="192"/>
+      <c r="Y1" s="192"/>
+      <c r="Z1" s="193"/>
+      <c r="AA1" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="149" t="str">
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="150"/>
-      <c r="AE1" s="150"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="178">
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="200">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH1" s="179"/>
-      <c r="AI1" s="180"/>
+      <c r="AH1" s="201"/>
+      <c r="AI1" s="202"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="183"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
       <c r="E2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="248"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="250"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="241"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="243"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="149" t="str">
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="178" t="str">
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="176"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="180"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="183"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="180"/>
       <c r="E3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="252"/>
-      <c r="Q3" s="252"/>
-      <c r="R3" s="253"/>
-      <c r="S3" s="200"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="201"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="149" t="str">
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="245"/>
+      <c r="Q3" s="245"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="198"/>
+      <c r="U3" s="198"/>
+      <c r="V3" s="198"/>
+      <c r="W3" s="198"/>
+      <c r="X3" s="198"/>
+      <c r="Y3" s="198"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="151"/>
-      <c r="AG3" s="178" t="str">
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="200" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="180"/>
+      <c r="AH3" s="201"/>
+      <c r="AI3" s="202"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:38" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="238" t="s">
+      <c r="B5" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="242" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="243"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="238" t="s">
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="235" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="236"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="242" t="s">
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="234"/>
+      <c r="M5" s="235" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="243"/>
-      <c r="O5" s="243"/>
-      <c r="P5" s="243"/>
-      <c r="Q5" s="243"/>
-      <c r="R5" s="243"/>
-      <c r="S5" s="243"/>
-      <c r="T5" s="243"/>
-      <c r="U5" s="244"/>
-      <c r="V5" s="238" t="s">
+      <c r="N5" s="236"/>
+      <c r="O5" s="236"/>
+      <c r="P5" s="236"/>
+      <c r="Q5" s="236"/>
+      <c r="R5" s="236"/>
+      <c r="S5" s="236"/>
+      <c r="T5" s="236"/>
+      <c r="U5" s="237"/>
+      <c r="V5" s="232" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="239"/>
-      <c r="X5" s="239"/>
-      <c r="Y5" s="240"/>
-      <c r="Z5" s="242" t="s">
+      <c r="W5" s="233"/>
+      <c r="X5" s="233"/>
+      <c r="Y5" s="234"/>
+      <c r="Z5" s="235" t="s">
         <v>61</v>
       </c>
-      <c r="AA5" s="243"/>
-      <c r="AB5" s="243"/>
-      <c r="AC5" s="243"/>
-      <c r="AD5" s="243"/>
-      <c r="AE5" s="243"/>
-      <c r="AF5" s="243"/>
-      <c r="AG5" s="243"/>
-      <c r="AH5" s="244"/>
+      <c r="AA5" s="236"/>
+      <c r="AB5" s="236"/>
+      <c r="AC5" s="236"/>
+      <c r="AD5" s="236"/>
+      <c r="AE5" s="236"/>
+      <c r="AF5" s="236"/>
+      <c r="AG5" s="236"/>
+      <c r="AH5" s="237"/>
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
       <c r="AK5" s="19"/>
       <c r="AL5" s="19"/>
     </row>
     <row r="6" spans="1:38" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="238" t="s">
+      <c r="B6" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="239"/>
-      <c r="L6" s="239"/>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="239"/>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="239"/>
-      <c r="U6" s="239"/>
-      <c r="V6" s="239"/>
-      <c r="W6" s="239"/>
-      <c r="X6" s="239"/>
-      <c r="Y6" s="239"/>
-      <c r="Z6" s="239"/>
-      <c r="AA6" s="239"/>
-      <c r="AB6" s="239"/>
-      <c r="AC6" s="239"/>
-      <c r="AD6" s="239"/>
-      <c r="AE6" s="239"/>
-      <c r="AF6" s="239"/>
-      <c r="AG6" s="239"/>
-      <c r="AH6" s="240"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="233"/>
+      <c r="L6" s="233"/>
+      <c r="M6" s="233"/>
+      <c r="N6" s="233"/>
+      <c r="O6" s="233"/>
+      <c r="P6" s="233"/>
+      <c r="Q6" s="233"/>
+      <c r="R6" s="233"/>
+      <c r="S6" s="233"/>
+      <c r="T6" s="233"/>
+      <c r="U6" s="233"/>
+      <c r="V6" s="233"/>
+      <c r="W6" s="233"/>
+      <c r="X6" s="233"/>
+      <c r="Y6" s="233"/>
+      <c r="Z6" s="233"/>
+      <c r="AA6" s="233"/>
+      <c r="AB6" s="233"/>
+      <c r="AC6" s="233"/>
+      <c r="AD6" s="233"/>
+      <c r="AE6" s="233"/>
+      <c r="AF6" s="233"/>
+      <c r="AG6" s="233"/>
+      <c r="AH6" s="234"/>
       <c r="AI6" s="19"/>
       <c r="AJ6" s="19"/>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:38" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="241" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="220"/>
-      <c r="N7" s="220"/>
-      <c r="O7" s="220"/>
-      <c r="P7" s="220"/>
-      <c r="Q7" s="220"/>
-      <c r="R7" s="220"/>
-      <c r="S7" s="220"/>
-      <c r="T7" s="220"/>
-      <c r="U7" s="220"/>
-      <c r="V7" s="220"/>
-      <c r="W7" s="220"/>
-      <c r="X7" s="220"/>
-      <c r="Y7" s="220"/>
-      <c r="Z7" s="220"/>
-      <c r="AA7" s="220"/>
-      <c r="AB7" s="220"/>
-      <c r="AC7" s="220"/>
-      <c r="AD7" s="220"/>
-      <c r="AE7" s="220"/>
-      <c r="AF7" s="220"/>
-      <c r="AG7" s="220"/>
-      <c r="AH7" s="221"/>
+      <c r="B7" s="247" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="216"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="216"/>
+      <c r="S7" s="216"/>
+      <c r="T7" s="216"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="216"/>
+      <c r="W7" s="216"/>
+      <c r="X7" s="216"/>
+      <c r="Y7" s="216"/>
+      <c r="Z7" s="216"/>
+      <c r="AA7" s="216"/>
+      <c r="AB7" s="216"/>
+      <c r="AC7" s="216"/>
+      <c r="AD7" s="216"/>
+      <c r="AE7" s="216"/>
+      <c r="AF7" s="216"/>
+      <c r="AG7" s="216"/>
+      <c r="AH7" s="217"/>
     </row>
     <row r="8" spans="1:38" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="216"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
-      <c r="H8" s="217"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="217"/>
-      <c r="K8" s="217"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="217"/>
-      <c r="N8" s="217"/>
-      <c r="O8" s="217"/>
-      <c r="P8" s="217"/>
-      <c r="Q8" s="217"/>
-      <c r="R8" s="217"/>
-      <c r="S8" s="217"/>
-      <c r="T8" s="217"/>
-      <c r="U8" s="217"/>
-      <c r="V8" s="217"/>
-      <c r="W8" s="217"/>
-      <c r="X8" s="217"/>
-      <c r="Y8" s="217"/>
-      <c r="Z8" s="217"/>
-      <c r="AA8" s="217"/>
-      <c r="AB8" s="217"/>
-      <c r="AC8" s="217"/>
-      <c r="AD8" s="217"/>
-      <c r="AE8" s="217"/>
-      <c r="AF8" s="217"/>
-      <c r="AG8" s="217"/>
-      <c r="AH8" s="218"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="204"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="204"/>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="204"/>
+      <c r="AE8" s="204"/>
+      <c r="AF8" s="204"/>
+      <c r="AG8" s="204"/>
+      <c r="AH8" s="205"/>
     </row>
     <row r="9" spans="1:38" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="216"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="217"/>
-      <c r="M9" s="217"/>
-      <c r="N9" s="217"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="217"/>
-      <c r="Q9" s="217"/>
-      <c r="R9" s="217"/>
-      <c r="S9" s="217"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="217"/>
-      <c r="V9" s="217"/>
-      <c r="W9" s="217"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="217"/>
-      <c r="Z9" s="217"/>
-      <c r="AA9" s="217"/>
-      <c r="AB9" s="217"/>
-      <c r="AC9" s="217"/>
-      <c r="AD9" s="217"/>
-      <c r="AE9" s="217"/>
-      <c r="AF9" s="217"/>
-      <c r="AG9" s="217"/>
-      <c r="AH9" s="218"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="204"/>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="204"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="204"/>
+      <c r="U9" s="204"/>
+      <c r="V9" s="204"/>
+      <c r="W9" s="204"/>
+      <c r="X9" s="204"/>
+      <c r="Y9" s="204"/>
+      <c r="Z9" s="204"/>
+      <c r="AA9" s="204"/>
+      <c r="AB9" s="204"/>
+      <c r="AC9" s="204"/>
+      <c r="AD9" s="204"/>
+      <c r="AE9" s="204"/>
+      <c r="AF9" s="204"/>
+      <c r="AG9" s="204"/>
+      <c r="AH9" s="205"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="216"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="217"/>
-      <c r="L10" s="217"/>
-      <c r="M10" s="217"/>
-      <c r="N10" s="217"/>
-      <c r="O10" s="217"/>
-      <c r="P10" s="217"/>
-      <c r="Q10" s="217"/>
-      <c r="R10" s="217"/>
-      <c r="S10" s="217"/>
-      <c r="T10" s="217"/>
-      <c r="U10" s="217"/>
-      <c r="V10" s="217"/>
-      <c r="W10" s="217"/>
-      <c r="X10" s="217"/>
-      <c r="Y10" s="217"/>
-      <c r="Z10" s="217"/>
-      <c r="AA10" s="217"/>
-      <c r="AB10" s="217"/>
-      <c r="AC10" s="217"/>
-      <c r="AD10" s="217"/>
-      <c r="AE10" s="217"/>
-      <c r="AF10" s="217"/>
-      <c r="AG10" s="217"/>
-      <c r="AH10" s="218"/>
+      <c r="B10" s="203"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
+      <c r="U10" s="204"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="204"/>
+      <c r="Z10" s="204"/>
+      <c r="AA10" s="204"/>
+      <c r="AB10" s="204"/>
+      <c r="AC10" s="204"/>
+      <c r="AD10" s="204"/>
+      <c r="AE10" s="204"/>
+      <c r="AF10" s="204"/>
+      <c r="AG10" s="204"/>
+      <c r="AH10" s="205"/>
     </row>
     <row r="11" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="216"/>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="217"/>
-      <c r="L11" s="217"/>
-      <c r="M11" s="217"/>
-      <c r="N11" s="217"/>
-      <c r="O11" s="217"/>
-      <c r="P11" s="217"/>
-      <c r="Q11" s="217"/>
-      <c r="R11" s="217"/>
-      <c r="S11" s="217"/>
-      <c r="T11" s="217"/>
-      <c r="U11" s="217"/>
-      <c r="V11" s="217"/>
-      <c r="W11" s="217"/>
-      <c r="X11" s="217"/>
-      <c r="Y11" s="217"/>
-      <c r="Z11" s="217"/>
-      <c r="AA11" s="217"/>
-      <c r="AB11" s="217"/>
-      <c r="AC11" s="217"/>
-      <c r="AD11" s="217"/>
-      <c r="AE11" s="217"/>
-      <c r="AF11" s="217"/>
-      <c r="AG11" s="217"/>
-      <c r="AH11" s="218"/>
+      <c r="B11" s="203"/>
+      <c r="C11" s="204"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="204"/>
+      <c r="U11" s="204"/>
+      <c r="V11" s="204"/>
+      <c r="W11" s="204"/>
+      <c r="X11" s="204"/>
+      <c r="Y11" s="204"/>
+      <c r="Z11" s="204"/>
+      <c r="AA11" s="204"/>
+      <c r="AB11" s="204"/>
+      <c r="AC11" s="204"/>
+      <c r="AD11" s="204"/>
+      <c r="AE11" s="204"/>
+      <c r="AF11" s="204"/>
+      <c r="AG11" s="204"/>
+      <c r="AH11" s="205"/>
     </row>
     <row r="12" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="209"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
-      <c r="P12" s="210"/>
-      <c r="Q12" s="210"/>
-      <c r="R12" s="210"/>
-      <c r="S12" s="210"/>
-      <c r="T12" s="210"/>
-      <c r="U12" s="210"/>
-      <c r="V12" s="210"/>
-      <c r="W12" s="210"/>
-      <c r="X12" s="210"/>
-      <c r="Y12" s="210"/>
-      <c r="Z12" s="210"/>
-      <c r="AA12" s="210"/>
-      <c r="AB12" s="210"/>
-      <c r="AC12" s="210"/>
-      <c r="AD12" s="210"/>
-      <c r="AE12" s="210"/>
-      <c r="AF12" s="210"/>
-      <c r="AG12" s="210"/>
-      <c r="AH12" s="211"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="207"/>
+      <c r="Q12" s="207"/>
+      <c r="R12" s="207"/>
+      <c r="S12" s="207"/>
+      <c r="T12" s="207"/>
+      <c r="U12" s="207"/>
+      <c r="V12" s="207"/>
+      <c r="W12" s="207"/>
+      <c r="X12" s="207"/>
+      <c r="Y12" s="207"/>
+      <c r="Z12" s="207"/>
+      <c r="AA12" s="207"/>
+      <c r="AB12" s="207"/>
+      <c r="AC12" s="207"/>
+      <c r="AD12" s="207"/>
+      <c r="AE12" s="207"/>
+      <c r="AF12" s="207"/>
+      <c r="AG12" s="207"/>
+      <c r="AH12" s="208"/>
     </row>
     <row r="13" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="230"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="235" t="s">
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="231" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="229" t="s">
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="230"/>
-      <c r="S13" s="230"/>
-      <c r="T13" s="231"/>
-      <c r="U13" s="234" t="s">
+      <c r="R13" s="219"/>
+      <c r="S13" s="219"/>
+      <c r="T13" s="220"/>
+      <c r="U13" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="V13" s="159"/>
-      <c r="W13" s="159"/>
-      <c r="X13" s="159"/>
-      <c r="Y13" s="159"/>
-      <c r="Z13" s="159"/>
-      <c r="AA13" s="159"/>
-      <c r="AB13" s="159"/>
-      <c r="AC13" s="159"/>
-      <c r="AD13" s="159"/>
-      <c r="AE13" s="159"/>
-      <c r="AF13" s="159"/>
-      <c r="AG13" s="159"/>
-      <c r="AH13" s="160"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="122"/>
     </row>
     <row r="14" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="230"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="230"/>
-      <c r="F14" s="230"/>
-      <c r="G14" s="230"/>
-      <c r="H14" s="230"/>
-      <c r="I14" s="230"/>
-      <c r="J14" s="230"/>
-      <c r="K14" s="230"/>
-      <c r="L14" s="230"/>
-      <c r="M14" s="230"/>
-      <c r="N14" s="230"/>
-      <c r="O14" s="230"/>
-      <c r="P14" s="230"/>
-      <c r="Q14" s="230"/>
-      <c r="R14" s="230"/>
-      <c r="S14" s="230"/>
-      <c r="T14" s="230"/>
-      <c r="U14" s="230"/>
-      <c r="V14" s="230"/>
-      <c r="W14" s="230"/>
-      <c r="X14" s="230"/>
-      <c r="Y14" s="230"/>
-      <c r="Z14" s="230"/>
-      <c r="AA14" s="230"/>
-      <c r="AB14" s="230"/>
-      <c r="AC14" s="230"/>
-      <c r="AD14" s="230"/>
-      <c r="AE14" s="230"/>
-      <c r="AF14" s="230"/>
-      <c r="AG14" s="230"/>
-      <c r="AH14" s="231"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="219"/>
+      <c r="R14" s="219"/>
+      <c r="S14" s="219"/>
+      <c r="T14" s="219"/>
+      <c r="U14" s="219"/>
+      <c r="V14" s="219"/>
+      <c r="W14" s="219"/>
+      <c r="X14" s="219"/>
+      <c r="Y14" s="219"/>
+      <c r="Z14" s="219"/>
+      <c r="AA14" s="219"/>
+      <c r="AB14" s="219"/>
+      <c r="AC14" s="219"/>
+      <c r="AD14" s="219"/>
+      <c r="AE14" s="219"/>
+      <c r="AF14" s="219"/>
+      <c r="AG14" s="219"/>
+      <c r="AH14" s="220"/>
     </row>
     <row r="15" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="229" t="s">
+      <c r="B15" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="230"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="230"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="229" t="s">
+      <c r="C15" s="219"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="231"/>
-      <c r="L15" s="229" t="s">
+      <c r="K15" s="220"/>
+      <c r="L15" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="230"/>
-      <c r="N15" s="231"/>
-      <c r="O15" s="229" t="s">
+      <c r="M15" s="219"/>
+      <c r="N15" s="220"/>
+      <c r="O15" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="231"/>
-      <c r="Q15" s="229" t="s">
+      <c r="P15" s="220"/>
+      <c r="Q15" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="230"/>
-      <c r="S15" s="230"/>
-      <c r="T15" s="230"/>
-      <c r="U15" s="230"/>
-      <c r="V15" s="230"/>
-      <c r="W15" s="230"/>
-      <c r="X15" s="230"/>
-      <c r="Y15" s="230"/>
-      <c r="Z15" s="230"/>
-      <c r="AA15" s="230"/>
-      <c r="AB15" s="230"/>
-      <c r="AC15" s="230"/>
-      <c r="AD15" s="230"/>
-      <c r="AE15" s="230"/>
-      <c r="AF15" s="230"/>
-      <c r="AG15" s="230"/>
-      <c r="AH15" s="231"/>
+      <c r="R15" s="219"/>
+      <c r="S15" s="219"/>
+      <c r="T15" s="219"/>
+      <c r="U15" s="219"/>
+      <c r="V15" s="219"/>
+      <c r="W15" s="219"/>
+      <c r="X15" s="219"/>
+      <c r="Y15" s="219"/>
+      <c r="Z15" s="219"/>
+      <c r="AA15" s="219"/>
+      <c r="AB15" s="219"/>
+      <c r="AC15" s="219"/>
+      <c r="AD15" s="219"/>
+      <c r="AE15" s="219"/>
+      <c r="AF15" s="219"/>
+      <c r="AG15" s="219"/>
+      <c r="AH15" s="220"/>
     </row>
     <row r="16" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="221" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="158" t="s">
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="160"/>
-      <c r="L16" s="234" t="s">
+      <c r="K16" s="122"/>
+      <c r="L16" s="221" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="159"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="236" t="s">
+      <c r="M16" s="121"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="227" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="237"/>
-      <c r="Q16" s="234" t="s">
+      <c r="P16" s="228"/>
+      <c r="Q16" s="221" t="s">
         <v>66</v>
       </c>
-      <c r="R16" s="159"/>
-      <c r="S16" s="159"/>
-      <c r="T16" s="159"/>
-      <c r="U16" s="159"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="159"/>
-      <c r="X16" s="159"/>
-      <c r="Y16" s="159"/>
-      <c r="Z16" s="159"/>
-      <c r="AA16" s="159"/>
-      <c r="AB16" s="159"/>
-      <c r="AC16" s="159"/>
-      <c r="AD16" s="159"/>
-      <c r="AE16" s="159"/>
-      <c r="AF16" s="159"/>
-      <c r="AG16" s="159"/>
-      <c r="AH16" s="160"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="121"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="122"/>
     </row>
     <row r="17" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="234" t="s">
+      <c r="B17" s="221" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="159"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="158" t="s">
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="160"/>
-      <c r="L17" s="235" t="s">
+      <c r="K17" s="122"/>
+      <c r="L17" s="231" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="162"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="236" t="s">
+      <c r="M17" s="124"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="227" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="237"/>
-      <c r="Q17" s="234" t="s">
+      <c r="P17" s="228"/>
+      <c r="Q17" s="221" t="s">
         <v>73</v>
       </c>
-      <c r="R17" s="159"/>
-      <c r="S17" s="159"/>
-      <c r="T17" s="159"/>
-      <c r="U17" s="159"/>
-      <c r="V17" s="159"/>
-      <c r="W17" s="159"/>
-      <c r="X17" s="159"/>
-      <c r="Y17" s="159"/>
-      <c r="Z17" s="159"/>
-      <c r="AA17" s="159"/>
-      <c r="AB17" s="159"/>
-      <c r="AC17" s="159"/>
-      <c r="AD17" s="159"/>
-      <c r="AE17" s="159"/>
-      <c r="AF17" s="159"/>
-      <c r="AG17" s="159"/>
-      <c r="AH17" s="160"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="121"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="121"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="121"/>
+      <c r="AF17" s="121"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="122"/>
     </row>
     <row r="18" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="234" t="s">
+      <c r="B18" s="221" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="158" t="s">
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="160"/>
-      <c r="L18" s="234" t="s">
+      <c r="K18" s="122"/>
+      <c r="L18" s="221" t="s">
         <v>70</v>
       </c>
-      <c r="M18" s="159"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="236" t="s">
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="227" t="s">
         <v>65</v>
       </c>
-      <c r="P18" s="237"/>
-      <c r="Q18" s="234" t="s">
+      <c r="P18" s="228"/>
+      <c r="Q18" s="221" t="s">
         <v>72</v>
       </c>
-      <c r="R18" s="159"/>
-      <c r="S18" s="159"/>
-      <c r="T18" s="159"/>
-      <c r="U18" s="159"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="159"/>
-      <c r="X18" s="159"/>
-      <c r="Y18" s="159"/>
-      <c r="Z18" s="159"/>
-      <c r="AA18" s="159"/>
-      <c r="AB18" s="159"/>
-      <c r="AC18" s="159"/>
-      <c r="AD18" s="159"/>
-      <c r="AE18" s="159"/>
-      <c r="AF18" s="159"/>
-      <c r="AG18" s="159"/>
-      <c r="AH18" s="160"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="121"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="121"/>
+      <c r="AC18" s="121"/>
+      <c r="AD18" s="121"/>
+      <c r="AE18" s="121"/>
+      <c r="AF18" s="121"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="122"/>
     </row>
     <row r="19" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="229" t="s">
+      <c r="B19" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="230"/>
-      <c r="D19" s="230"/>
-      <c r="E19" s="230"/>
-      <c r="F19" s="230"/>
-      <c r="G19" s="230"/>
-      <c r="H19" s="230"/>
-      <c r="I19" s="230"/>
-      <c r="J19" s="230"/>
-      <c r="K19" s="230"/>
-      <c r="L19" s="230"/>
-      <c r="M19" s="230"/>
-      <c r="N19" s="230"/>
-      <c r="O19" s="230"/>
-      <c r="P19" s="230"/>
-      <c r="Q19" s="230"/>
-      <c r="R19" s="230"/>
-      <c r="S19" s="230"/>
-      <c r="T19" s="230"/>
-      <c r="U19" s="230"/>
-      <c r="V19" s="230"/>
-      <c r="W19" s="230"/>
-      <c r="X19" s="230"/>
-      <c r="Y19" s="230"/>
-      <c r="Z19" s="230"/>
-      <c r="AA19" s="230"/>
-      <c r="AB19" s="230"/>
-      <c r="AC19" s="230"/>
-      <c r="AD19" s="230"/>
-      <c r="AE19" s="230"/>
-      <c r="AF19" s="230"/>
-      <c r="AG19" s="230"/>
-      <c r="AH19" s="231"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="219"/>
+      <c r="K19" s="219"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="219"/>
+      <c r="N19" s="219"/>
+      <c r="O19" s="219"/>
+      <c r="P19" s="219"/>
+      <c r="Q19" s="219"/>
+      <c r="R19" s="219"/>
+      <c r="S19" s="219"/>
+      <c r="T19" s="219"/>
+      <c r="U19" s="219"/>
+      <c r="V19" s="219"/>
+      <c r="W19" s="219"/>
+      <c r="X19" s="219"/>
+      <c r="Y19" s="219"/>
+      <c r="Z19" s="219"/>
+      <c r="AA19" s="219"/>
+      <c r="AB19" s="219"/>
+      <c r="AC19" s="219"/>
+      <c r="AD19" s="219"/>
+      <c r="AE19" s="219"/>
+      <c r="AF19" s="219"/>
+      <c r="AG19" s="219"/>
+      <c r="AH19" s="220"/>
     </row>
     <row r="20" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="230"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="230"/>
-      <c r="I20" s="231"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="220"/>
       <c r="J20" s="82" t="s">
         <v>31</v>
       </c>
@@ -7289,187 +7289,187 @@
       <c r="M20" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="N20" s="229" t="s">
+      <c r="N20" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="230"/>
-      <c r="P20" s="230"/>
-      <c r="Q20" s="230"/>
-      <c r="R20" s="230"/>
-      <c r="S20" s="230"/>
-      <c r="T20" s="230"/>
-      <c r="U20" s="230"/>
-      <c r="V20" s="230"/>
-      <c r="W20" s="230"/>
-      <c r="X20" s="230"/>
-      <c r="Y20" s="230"/>
-      <c r="Z20" s="230"/>
-      <c r="AA20" s="230"/>
-      <c r="AB20" s="230"/>
-      <c r="AC20" s="230"/>
-      <c r="AD20" s="230"/>
-      <c r="AE20" s="230"/>
-      <c r="AF20" s="230"/>
-      <c r="AG20" s="230"/>
-      <c r="AH20" s="231"/>
+      <c r="O20" s="219"/>
+      <c r="P20" s="219"/>
+      <c r="Q20" s="219"/>
+      <c r="R20" s="219"/>
+      <c r="S20" s="219"/>
+      <c r="T20" s="219"/>
+      <c r="U20" s="219"/>
+      <c r="V20" s="219"/>
+      <c r="W20" s="219"/>
+      <c r="X20" s="219"/>
+      <c r="Y20" s="219"/>
+      <c r="Z20" s="219"/>
+      <c r="AA20" s="219"/>
+      <c r="AB20" s="219"/>
+      <c r="AC20" s="219"/>
+      <c r="AD20" s="219"/>
+      <c r="AE20" s="219"/>
+      <c r="AF20" s="219"/>
+      <c r="AG20" s="219"/>
+      <c r="AH20" s="220"/>
     </row>
     <row r="21" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="232" t="s">
+      <c r="B21" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="233"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="230"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="230"/>
+      <c r="I21" s="230"/>
       <c r="J21" s="81"/>
       <c r="K21" s="81"/>
       <c r="L21" s="81"/>
       <c r="M21" s="75"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="159"/>
-      <c r="S21" s="159"/>
-      <c r="T21" s="159"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="159"/>
-      <c r="X21" s="159"/>
-      <c r="Y21" s="159"/>
-      <c r="Z21" s="159"/>
-      <c r="AA21" s="159"/>
-      <c r="AB21" s="159"/>
-      <c r="AC21" s="159"/>
-      <c r="AD21" s="159"/>
-      <c r="AE21" s="159"/>
-      <c r="AF21" s="159"/>
-      <c r="AG21" s="159"/>
-      <c r="AH21" s="160"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="121"/>
+      <c r="R21" s="121"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="121"/>
+      <c r="AC21" s="121"/>
+      <c r="AD21" s="121"/>
+      <c r="AE21" s="121"/>
+      <c r="AF21" s="121"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="122"/>
     </row>
     <row r="22" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="218" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="230"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="230"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="230"/>
-      <c r="H22" s="230"/>
-      <c r="I22" s="230"/>
-      <c r="J22" s="230"/>
-      <c r="K22" s="230"/>
-      <c r="L22" s="230"/>
-      <c r="M22" s="230"/>
-      <c r="N22" s="230"/>
-      <c r="O22" s="230"/>
-      <c r="P22" s="230"/>
-      <c r="Q22" s="230"/>
-      <c r="R22" s="230"/>
-      <c r="S22" s="230"/>
-      <c r="T22" s="230"/>
-      <c r="U22" s="230"/>
-      <c r="V22" s="230"/>
-      <c r="W22" s="230"/>
-      <c r="X22" s="230"/>
-      <c r="Y22" s="230"/>
-      <c r="Z22" s="230"/>
-      <c r="AA22" s="230"/>
-      <c r="AB22" s="230"/>
-      <c r="AC22" s="230"/>
-      <c r="AD22" s="230"/>
-      <c r="AE22" s="230"/>
-      <c r="AF22" s="230"/>
-      <c r="AG22" s="230"/>
-      <c r="AH22" s="231"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="219"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="219"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
+      <c r="P22" s="219"/>
+      <c r="Q22" s="219"/>
+      <c r="R22" s="219"/>
+      <c r="S22" s="219"/>
+      <c r="T22" s="219"/>
+      <c r="U22" s="219"/>
+      <c r="V22" s="219"/>
+      <c r="W22" s="219"/>
+      <c r="X22" s="219"/>
+      <c r="Y22" s="219"/>
+      <c r="Z22" s="219"/>
+      <c r="AA22" s="219"/>
+      <c r="AB22" s="219"/>
+      <c r="AC22" s="219"/>
+      <c r="AD22" s="219"/>
+      <c r="AE22" s="219"/>
+      <c r="AF22" s="219"/>
+      <c r="AG22" s="219"/>
+      <c r="AH22" s="220"/>
     </row>
     <row r="23" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="227" t="s">
+      <c r="B23" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="228"/>
-      <c r="D23" s="229" t="s">
+      <c r="C23" s="223"/>
+      <c r="D23" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="230"/>
-      <c r="F23" s="230"/>
-      <c r="G23" s="230"/>
-      <c r="H23" s="230"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="231"/>
-      <c r="K23" s="229" t="s">
+      <c r="E23" s="219"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="220"/>
+      <c r="K23" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="230"/>
-      <c r="M23" s="230"/>
-      <c r="N23" s="230"/>
-      <c r="O23" s="231"/>
-      <c r="P23" s="229" t="s">
+      <c r="L23" s="219"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="219"/>
+      <c r="O23" s="220"/>
+      <c r="P23" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="Q23" s="230"/>
-      <c r="R23" s="231"/>
-      <c r="S23" s="229" t="s">
+      <c r="Q23" s="219"/>
+      <c r="R23" s="220"/>
+      <c r="S23" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="T23" s="230"/>
-      <c r="U23" s="230"/>
-      <c r="V23" s="230"/>
-      <c r="W23" s="231"/>
-      <c r="X23" s="229" t="s">
+      <c r="T23" s="219"/>
+      <c r="U23" s="219"/>
+      <c r="V23" s="219"/>
+      <c r="W23" s="220"/>
+      <c r="X23" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="Y23" s="230"/>
-      <c r="Z23" s="230"/>
-      <c r="AA23" s="230"/>
-      <c r="AB23" s="230"/>
-      <c r="AC23" s="230"/>
-      <c r="AD23" s="230"/>
-      <c r="AE23" s="230"/>
-      <c r="AF23" s="230"/>
-      <c r="AG23" s="230"/>
-      <c r="AH23" s="231"/>
+      <c r="Y23" s="219"/>
+      <c r="Z23" s="219"/>
+      <c r="AA23" s="219"/>
+      <c r="AB23" s="219"/>
+      <c r="AC23" s="219"/>
+      <c r="AD23" s="219"/>
+      <c r="AE23" s="219"/>
+      <c r="AF23" s="219"/>
+      <c r="AG23" s="219"/>
+      <c r="AH23" s="220"/>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="208"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="163"/>
-      <c r="S24" s="161"/>
-      <c r="T24" s="162"/>
-      <c r="U24" s="162"/>
-      <c r="V24" s="162"/>
-      <c r="W24" s="163"/>
-      <c r="X24" s="161"/>
-      <c r="Y24" s="162"/>
-      <c r="Z24" s="162"/>
-      <c r="AA24" s="162"/>
-      <c r="AB24" s="162"/>
-      <c r="AC24" s="162"/>
-      <c r="AD24" s="162"/>
-      <c r="AE24" s="162"/>
-      <c r="AF24" s="162"/>
-      <c r="AG24" s="162"/>
-      <c r="AH24" s="163"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="124"/>
+      <c r="U24" s="124"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="123"/>
+      <c r="Y24" s="124"/>
+      <c r="Z24" s="124"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="124"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="124"/>
+      <c r="AE24" s="124"/>
+      <c r="AF24" s="124"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="125"/>
       <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7547,10 +7547,10 @@
       <c r="AD26" s="225"/>
       <c r="AE26" s="225"/>
       <c r="AF26" s="226"/>
-      <c r="AG26" s="227" t="s">
+      <c r="AG26" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AH26" s="228"/>
+      <c r="AH26" s="223"/>
       <c r="AI26" s="23"/>
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
@@ -7581,16 +7581,16 @@
       <c r="V27" s="83"/>
       <c r="W27" s="83"/>
       <c r="X27" s="84"/>
-      <c r="Y27" s="219"/>
-      <c r="Z27" s="220"/>
-      <c r="AA27" s="221"/>
-      <c r="AB27" s="219"/>
-      <c r="AC27" s="220"/>
-      <c r="AD27" s="220"/>
-      <c r="AE27" s="220"/>
-      <c r="AF27" s="221"/>
-      <c r="AG27" s="222"/>
-      <c r="AH27" s="223"/>
+      <c r="Y27" s="215"/>
+      <c r="Z27" s="216"/>
+      <c r="AA27" s="217"/>
+      <c r="AB27" s="215"/>
+      <c r="AC27" s="216"/>
+      <c r="AD27" s="216"/>
+      <c r="AE27" s="216"/>
+      <c r="AF27" s="217"/>
+      <c r="AG27" s="209"/>
+      <c r="AH27" s="210"/>
     </row>
     <row r="28" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="99" t="s">
@@ -7618,20 +7618,20 @@
       <c r="V28" s="86"/>
       <c r="W28" s="86"/>
       <c r="X28" s="87"/>
-      <c r="Y28" s="216"/>
-      <c r="Z28" s="217"/>
-      <c r="AA28" s="218"/>
-      <c r="AB28" s="216"/>
-      <c r="AC28" s="217"/>
-      <c r="AD28" s="217"/>
-      <c r="AE28" s="217"/>
-      <c r="AF28" s="218"/>
-      <c r="AG28" s="214"/>
-      <c r="AH28" s="215"/>
+      <c r="Y28" s="203"/>
+      <c r="Z28" s="204"/>
+      <c r="AA28" s="205"/>
+      <c r="AB28" s="203"/>
+      <c r="AC28" s="204"/>
+      <c r="AD28" s="204"/>
+      <c r="AE28" s="204"/>
+      <c r="AF28" s="205"/>
+      <c r="AG28" s="211"/>
+      <c r="AH28" s="212"/>
     </row>
     <row r="29" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="105"/>
       <c r="D29" s="106"/>
@@ -7655,16 +7655,16 @@
       <c r="V29" s="86"/>
       <c r="W29" s="86"/>
       <c r="X29" s="87"/>
-      <c r="Y29" s="216"/>
-      <c r="Z29" s="217"/>
-      <c r="AA29" s="218"/>
-      <c r="AB29" s="216"/>
-      <c r="AC29" s="217"/>
-      <c r="AD29" s="217"/>
-      <c r="AE29" s="217"/>
-      <c r="AF29" s="218"/>
-      <c r="AG29" s="214"/>
-      <c r="AH29" s="215"/>
+      <c r="Y29" s="203"/>
+      <c r="Z29" s="204"/>
+      <c r="AA29" s="205"/>
+      <c r="AB29" s="203"/>
+      <c r="AC29" s="204"/>
+      <c r="AD29" s="204"/>
+      <c r="AE29" s="204"/>
+      <c r="AF29" s="205"/>
+      <c r="AG29" s="211"/>
+      <c r="AH29" s="212"/>
     </row>
     <row r="30" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="76"/>
@@ -7690,16 +7690,16 @@
       <c r="V30" s="86"/>
       <c r="W30" s="86"/>
       <c r="X30" s="87"/>
-      <c r="Y30" s="216"/>
-      <c r="Z30" s="217"/>
-      <c r="AA30" s="218"/>
-      <c r="AB30" s="216"/>
-      <c r="AC30" s="217"/>
-      <c r="AD30" s="217"/>
-      <c r="AE30" s="217"/>
-      <c r="AF30" s="218"/>
-      <c r="AG30" s="214"/>
-      <c r="AH30" s="215"/>
+      <c r="Y30" s="203"/>
+      <c r="Z30" s="204"/>
+      <c r="AA30" s="205"/>
+      <c r="AB30" s="203"/>
+      <c r="AC30" s="204"/>
+      <c r="AD30" s="204"/>
+      <c r="AE30" s="204"/>
+      <c r="AF30" s="205"/>
+      <c r="AG30" s="211"/>
+      <c r="AH30" s="212"/>
     </row>
     <row r="31" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="76"/>
@@ -7727,16 +7727,16 @@
       <c r="V31" s="86"/>
       <c r="W31" s="86"/>
       <c r="X31" s="87"/>
-      <c r="Y31" s="216"/>
-      <c r="Z31" s="217"/>
-      <c r="AA31" s="218"/>
-      <c r="AB31" s="216"/>
-      <c r="AC31" s="217"/>
-      <c r="AD31" s="217"/>
-      <c r="AE31" s="217"/>
-      <c r="AF31" s="218"/>
-      <c r="AG31" s="214"/>
-      <c r="AH31" s="215"/>
+      <c r="Y31" s="203"/>
+      <c r="Z31" s="204"/>
+      <c r="AA31" s="205"/>
+      <c r="AB31" s="203"/>
+      <c r="AC31" s="204"/>
+      <c r="AD31" s="204"/>
+      <c r="AE31" s="204"/>
+      <c r="AF31" s="205"/>
+      <c r="AG31" s="211"/>
+      <c r="AH31" s="212"/>
     </row>
     <row r="32" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="76"/>
@@ -7762,16 +7762,16 @@
       <c r="V32" s="86"/>
       <c r="W32" s="86"/>
       <c r="X32" s="87"/>
-      <c r="Y32" s="216"/>
-      <c r="Z32" s="217"/>
-      <c r="AA32" s="218"/>
-      <c r="AB32" s="216"/>
-      <c r="AC32" s="217"/>
-      <c r="AD32" s="217"/>
-      <c r="AE32" s="217"/>
-      <c r="AF32" s="218"/>
-      <c r="AG32" s="214"/>
-      <c r="AH32" s="215"/>
+      <c r="Y32" s="203"/>
+      <c r="Z32" s="204"/>
+      <c r="AA32" s="205"/>
+      <c r="AB32" s="203"/>
+      <c r="AC32" s="204"/>
+      <c r="AD32" s="204"/>
+      <c r="AE32" s="204"/>
+      <c r="AF32" s="205"/>
+      <c r="AG32" s="211"/>
+      <c r="AH32" s="212"/>
     </row>
     <row r="33" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="76"/>
@@ -7805,16 +7805,16 @@
       <c r="V33" s="96"/>
       <c r="W33" s="97"/>
       <c r="X33" s="87"/>
-      <c r="Y33" s="216"/>
-      <c r="Z33" s="217"/>
-      <c r="AA33" s="218"/>
-      <c r="AB33" s="216"/>
-      <c r="AC33" s="217"/>
-      <c r="AD33" s="217"/>
-      <c r="AE33" s="217"/>
-      <c r="AF33" s="218"/>
-      <c r="AG33" s="214"/>
-      <c r="AH33" s="215"/>
+      <c r="Y33" s="203"/>
+      <c r="Z33" s="204"/>
+      <c r="AA33" s="205"/>
+      <c r="AB33" s="203"/>
+      <c r="AC33" s="204"/>
+      <c r="AD33" s="204"/>
+      <c r="AE33" s="204"/>
+      <c r="AF33" s="205"/>
+      <c r="AG33" s="211"/>
+      <c r="AH33" s="212"/>
     </row>
     <row r="34" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="76"/>
@@ -7840,16 +7840,16 @@
       <c r="V34" s="86"/>
       <c r="W34" s="86"/>
       <c r="X34" s="87"/>
-      <c r="Y34" s="216"/>
-      <c r="Z34" s="217"/>
-      <c r="AA34" s="218"/>
-      <c r="AB34" s="216"/>
-      <c r="AC34" s="217"/>
-      <c r="AD34" s="217"/>
-      <c r="AE34" s="217"/>
-      <c r="AF34" s="218"/>
-      <c r="AG34" s="214"/>
-      <c r="AH34" s="215"/>
+      <c r="Y34" s="203"/>
+      <c r="Z34" s="204"/>
+      <c r="AA34" s="205"/>
+      <c r="AB34" s="203"/>
+      <c r="AC34" s="204"/>
+      <c r="AD34" s="204"/>
+      <c r="AE34" s="204"/>
+      <c r="AF34" s="205"/>
+      <c r="AG34" s="211"/>
+      <c r="AH34" s="212"/>
     </row>
     <row r="35" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="85"/>
@@ -7933,14 +7933,14 @@
     </row>
     <row r="37" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="85"/>
-      <c r="C37" s="206" t="s">
+      <c r="C37" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="204"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="205"/>
+      <c r="D37" s="251"/>
+      <c r="E37" s="251"/>
+      <c r="F37" s="251"/>
+      <c r="G37" s="251"/>
+      <c r="H37" s="252"/>
       <c r="I37" s="100" t="s">
         <v>86</v>
       </c>
@@ -7978,14 +7978,14 @@
     </row>
     <row r="38" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="85"/>
-      <c r="C38" s="203" t="s">
+      <c r="C38" s="250" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="205"/>
+      <c r="D38" s="251"/>
+      <c r="E38" s="251"/>
+      <c r="F38" s="251"/>
+      <c r="G38" s="251"/>
+      <c r="H38" s="252"/>
       <c r="I38" s="100" t="s">
         <v>86</v>
       </c>
@@ -8023,14 +8023,14 @@
     </row>
     <row r="39" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="85"/>
-      <c r="C39" s="203" t="s">
+      <c r="C39" s="250" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="204"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204"/>
-      <c r="H39" s="205"/>
+      <c r="D39" s="251"/>
+      <c r="E39" s="251"/>
+      <c r="F39" s="251"/>
+      <c r="G39" s="251"/>
+      <c r="H39" s="252"/>
       <c r="I39" s="100" t="s">
         <v>87</v>
       </c>
@@ -8068,14 +8068,14 @@
     </row>
     <row r="40" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="76"/>
-      <c r="C40" s="203" t="s">
+      <c r="C40" s="250" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="204"/>
-      <c r="E40" s="204"/>
-      <c r="F40" s="204"/>
-      <c r="G40" s="204"/>
-      <c r="H40" s="205"/>
+      <c r="D40" s="251"/>
+      <c r="E40" s="251"/>
+      <c r="F40" s="251"/>
+      <c r="G40" s="251"/>
+      <c r="H40" s="252"/>
       <c r="I40" s="100" t="s">
         <v>88</v>
       </c>
@@ -8100,16 +8100,16 @@
       <c r="V40" s="101"/>
       <c r="W40" s="110"/>
       <c r="X40" s="87"/>
-      <c r="Y40" s="216"/>
-      <c r="Z40" s="217"/>
-      <c r="AA40" s="218"/>
-      <c r="AB40" s="216"/>
-      <c r="AC40" s="217"/>
-      <c r="AD40" s="217"/>
-      <c r="AE40" s="217"/>
-      <c r="AF40" s="218"/>
-      <c r="AG40" s="214"/>
-      <c r="AH40" s="215"/>
+      <c r="Y40" s="203"/>
+      <c r="Z40" s="204"/>
+      <c r="AA40" s="205"/>
+      <c r="AB40" s="203"/>
+      <c r="AC40" s="204"/>
+      <c r="AD40" s="204"/>
+      <c r="AE40" s="204"/>
+      <c r="AF40" s="205"/>
+      <c r="AG40" s="211"/>
+      <c r="AH40" s="212"/>
     </row>
     <row r="41" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="76"/>
@@ -8135,16 +8135,16 @@
       <c r="V41" s="86"/>
       <c r="W41" s="86"/>
       <c r="X41" s="87"/>
-      <c r="Y41" s="216"/>
-      <c r="Z41" s="217"/>
-      <c r="AA41" s="218"/>
-      <c r="AB41" s="216"/>
-      <c r="AC41" s="217"/>
-      <c r="AD41" s="217"/>
-      <c r="AE41" s="217"/>
-      <c r="AF41" s="218"/>
-      <c r="AG41" s="214"/>
-      <c r="AH41" s="215"/>
+      <c r="Y41" s="203"/>
+      <c r="Z41" s="204"/>
+      <c r="AA41" s="205"/>
+      <c r="AB41" s="203"/>
+      <c r="AC41" s="204"/>
+      <c r="AD41" s="204"/>
+      <c r="AE41" s="204"/>
+      <c r="AF41" s="205"/>
+      <c r="AG41" s="211"/>
+      <c r="AH41" s="212"/>
     </row>
     <row r="42" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="99" t="s">
@@ -8388,16 +8388,16 @@
       <c r="V48" s="86"/>
       <c r="W48" s="86"/>
       <c r="X48" s="87"/>
-      <c r="Y48" s="216"/>
-      <c r="Z48" s="217"/>
-      <c r="AA48" s="218"/>
-      <c r="AB48" s="216"/>
-      <c r="AC48" s="217"/>
-      <c r="AD48" s="217"/>
-      <c r="AE48" s="217"/>
-      <c r="AF48" s="218"/>
-      <c r="AG48" s="214"/>
-      <c r="AH48" s="215"/>
+      <c r="Y48" s="203"/>
+      <c r="Z48" s="204"/>
+      <c r="AA48" s="205"/>
+      <c r="AB48" s="203"/>
+      <c r="AC48" s="204"/>
+      <c r="AD48" s="204"/>
+      <c r="AE48" s="204"/>
+      <c r="AF48" s="205"/>
+      <c r="AG48" s="211"/>
+      <c r="AH48" s="212"/>
     </row>
     <row r="49" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="76"/>
@@ -8425,16 +8425,16 @@
       <c r="V49" s="86"/>
       <c r="W49" s="86"/>
       <c r="X49" s="87"/>
-      <c r="Y49" s="216"/>
-      <c r="Z49" s="217"/>
-      <c r="AA49" s="218"/>
-      <c r="AB49" s="216"/>
-      <c r="AC49" s="217"/>
-      <c r="AD49" s="217"/>
-      <c r="AE49" s="217"/>
-      <c r="AF49" s="218"/>
-      <c r="AG49" s="214"/>
-      <c r="AH49" s="215"/>
+      <c r="Y49" s="203"/>
+      <c r="Z49" s="204"/>
+      <c r="AA49" s="205"/>
+      <c r="AB49" s="203"/>
+      <c r="AC49" s="204"/>
+      <c r="AD49" s="204"/>
+      <c r="AE49" s="204"/>
+      <c r="AF49" s="205"/>
+      <c r="AG49" s="211"/>
+      <c r="AH49" s="212"/>
     </row>
     <row r="50" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="76"/>
@@ -8460,16 +8460,16 @@
       <c r="V50" s="86"/>
       <c r="W50" s="86"/>
       <c r="X50" s="87"/>
-      <c r="Y50" s="216"/>
-      <c r="Z50" s="217"/>
-      <c r="AA50" s="218"/>
-      <c r="AB50" s="216"/>
-      <c r="AC50" s="217"/>
-      <c r="AD50" s="217"/>
-      <c r="AE50" s="217"/>
-      <c r="AF50" s="218"/>
-      <c r="AG50" s="214"/>
-      <c r="AH50" s="215"/>
+      <c r="Y50" s="203"/>
+      <c r="Z50" s="204"/>
+      <c r="AA50" s="205"/>
+      <c r="AB50" s="203"/>
+      <c r="AC50" s="204"/>
+      <c r="AD50" s="204"/>
+      <c r="AE50" s="204"/>
+      <c r="AF50" s="205"/>
+      <c r="AG50" s="211"/>
+      <c r="AH50" s="212"/>
     </row>
     <row r="51" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="77"/>
@@ -8497,539 +8497,539 @@
       <c r="V51" s="89"/>
       <c r="W51" s="89"/>
       <c r="X51" s="90"/>
-      <c r="Y51" s="209"/>
-      <c r="Z51" s="210"/>
-      <c r="AA51" s="211"/>
-      <c r="AB51" s="209"/>
-      <c r="AC51" s="210"/>
-      <c r="AD51" s="210"/>
-      <c r="AE51" s="210"/>
-      <c r="AF51" s="211"/>
-      <c r="AG51" s="212"/>
-      <c r="AH51" s="213"/>
+      <c r="Y51" s="206"/>
+      <c r="Z51" s="207"/>
+      <c r="AA51" s="208"/>
+      <c r="AB51" s="206"/>
+      <c r="AC51" s="207"/>
+      <c r="AD51" s="207"/>
+      <c r="AE51" s="207"/>
+      <c r="AF51" s="208"/>
+      <c r="AG51" s="213"/>
+      <c r="AH51" s="214"/>
     </row>
     <row r="52" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="53" spans="2:38" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="238" t="s">
+      <c r="B53" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="239"/>
-      <c r="D53" s="239"/>
-      <c r="E53" s="240"/>
-      <c r="F53" s="242" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" s="243"/>
-      <c r="H53" s="244"/>
-      <c r="I53" s="238" t="s">
+      <c r="C53" s="233"/>
+      <c r="D53" s="233"/>
+      <c r="E53" s="234"/>
+      <c r="F53" s="235" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="236"/>
+      <c r="H53" s="237"/>
+      <c r="I53" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="239"/>
-      <c r="K53" s="239"/>
-      <c r="L53" s="240"/>
-      <c r="M53" s="242" t="s">
+      <c r="J53" s="233"/>
+      <c r="K53" s="233"/>
+      <c r="L53" s="234"/>
+      <c r="M53" s="235" t="s">
         <v>58</v>
       </c>
-      <c r="N53" s="243"/>
-      <c r="O53" s="243"/>
-      <c r="P53" s="243"/>
-      <c r="Q53" s="243"/>
-      <c r="R53" s="243"/>
-      <c r="S53" s="243"/>
-      <c r="T53" s="243"/>
-      <c r="U53" s="244"/>
-      <c r="V53" s="238" t="s">
+      <c r="N53" s="236"/>
+      <c r="O53" s="236"/>
+      <c r="P53" s="236"/>
+      <c r="Q53" s="236"/>
+      <c r="R53" s="236"/>
+      <c r="S53" s="236"/>
+      <c r="T53" s="236"/>
+      <c r="U53" s="237"/>
+      <c r="V53" s="232" t="s">
         <v>13</v>
       </c>
-      <c r="W53" s="239"/>
-      <c r="X53" s="239"/>
-      <c r="Y53" s="240"/>
-      <c r="Z53" s="242" t="s">
+      <c r="W53" s="233"/>
+      <c r="X53" s="233"/>
+      <c r="Y53" s="234"/>
+      <c r="Z53" s="235" t="s">
         <v>107</v>
       </c>
-      <c r="AA53" s="243"/>
-      <c r="AB53" s="243"/>
-      <c r="AC53" s="243"/>
-      <c r="AD53" s="243"/>
-      <c r="AE53" s="243"/>
-      <c r="AF53" s="243"/>
-      <c r="AG53" s="243"/>
-      <c r="AH53" s="244"/>
+      <c r="AA53" s="236"/>
+      <c r="AB53" s="236"/>
+      <c r="AC53" s="236"/>
+      <c r="AD53" s="236"/>
+      <c r="AE53" s="236"/>
+      <c r="AF53" s="236"/>
+      <c r="AG53" s="236"/>
+      <c r="AH53" s="237"/>
       <c r="AI53" s="19"/>
       <c r="AJ53" s="19"/>
       <c r="AK53" s="19"/>
       <c r="AL53" s="19"/>
     </row>
     <row r="54" spans="2:38" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="238" t="s">
+      <c r="B54" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="239"/>
-      <c r="D54" s="239"/>
-      <c r="E54" s="239"/>
-      <c r="F54" s="239"/>
-      <c r="G54" s="239"/>
-      <c r="H54" s="239"/>
-      <c r="I54" s="239"/>
-      <c r="J54" s="239"/>
-      <c r="K54" s="239"/>
-      <c r="L54" s="239"/>
-      <c r="M54" s="239"/>
-      <c r="N54" s="239"/>
-      <c r="O54" s="239"/>
-      <c r="P54" s="239"/>
-      <c r="Q54" s="239"/>
-      <c r="R54" s="239"/>
-      <c r="S54" s="239"/>
-      <c r="T54" s="239"/>
-      <c r="U54" s="239"/>
-      <c r="V54" s="239"/>
-      <c r="W54" s="239"/>
-      <c r="X54" s="239"/>
-      <c r="Y54" s="239"/>
-      <c r="Z54" s="239"/>
-      <c r="AA54" s="239"/>
-      <c r="AB54" s="239"/>
-      <c r="AC54" s="239"/>
-      <c r="AD54" s="239"/>
-      <c r="AE54" s="239"/>
-      <c r="AF54" s="239"/>
-      <c r="AG54" s="239"/>
-      <c r="AH54" s="240"/>
+      <c r="C54" s="233"/>
+      <c r="D54" s="233"/>
+      <c r="E54" s="233"/>
+      <c r="F54" s="233"/>
+      <c r="G54" s="233"/>
+      <c r="H54" s="233"/>
+      <c r="I54" s="233"/>
+      <c r="J54" s="233"/>
+      <c r="K54" s="233"/>
+      <c r="L54" s="233"/>
+      <c r="M54" s="233"/>
+      <c r="N54" s="233"/>
+      <c r="O54" s="233"/>
+      <c r="P54" s="233"/>
+      <c r="Q54" s="233"/>
+      <c r="R54" s="233"/>
+      <c r="S54" s="233"/>
+      <c r="T54" s="233"/>
+      <c r="U54" s="233"/>
+      <c r="V54" s="233"/>
+      <c r="W54" s="233"/>
+      <c r="X54" s="233"/>
+      <c r="Y54" s="233"/>
+      <c r="Z54" s="233"/>
+      <c r="AA54" s="233"/>
+      <c r="AB54" s="233"/>
+      <c r="AC54" s="233"/>
+      <c r="AD54" s="233"/>
+      <c r="AE54" s="233"/>
+      <c r="AF54" s="233"/>
+      <c r="AG54" s="233"/>
+      <c r="AH54" s="234"/>
       <c r="AI54" s="19"/>
       <c r="AJ54" s="19"/>
       <c r="AK54" s="19"/>
     </row>
     <row r="55" spans="2:38" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="241" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="220"/>
-      <c r="D55" s="220"/>
-      <c r="E55" s="220"/>
-      <c r="F55" s="220"/>
-      <c r="G55" s="220"/>
-      <c r="H55" s="220"/>
-      <c r="I55" s="220"/>
-      <c r="J55" s="220"/>
-      <c r="K55" s="220"/>
-      <c r="L55" s="220"/>
-      <c r="M55" s="220"/>
-      <c r="N55" s="220"/>
-      <c r="O55" s="220"/>
-      <c r="P55" s="220"/>
-      <c r="Q55" s="220"/>
-      <c r="R55" s="220"/>
-      <c r="S55" s="220"/>
-      <c r="T55" s="220"/>
-      <c r="U55" s="220"/>
-      <c r="V55" s="220"/>
-      <c r="W55" s="220"/>
-      <c r="X55" s="220"/>
-      <c r="Y55" s="220"/>
-      <c r="Z55" s="220"/>
-      <c r="AA55" s="220"/>
-      <c r="AB55" s="220"/>
-      <c r="AC55" s="220"/>
-      <c r="AD55" s="220"/>
-      <c r="AE55" s="220"/>
-      <c r="AF55" s="220"/>
-      <c r="AG55" s="220"/>
-      <c r="AH55" s="221"/>
+      <c r="B55" s="247" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="216"/>
+      <c r="D55" s="216"/>
+      <c r="E55" s="216"/>
+      <c r="F55" s="216"/>
+      <c r="G55" s="216"/>
+      <c r="H55" s="216"/>
+      <c r="I55" s="216"/>
+      <c r="J55" s="216"/>
+      <c r="K55" s="216"/>
+      <c r="L55" s="216"/>
+      <c r="M55" s="216"/>
+      <c r="N55" s="216"/>
+      <c r="O55" s="216"/>
+      <c r="P55" s="216"/>
+      <c r="Q55" s="216"/>
+      <c r="R55" s="216"/>
+      <c r="S55" s="216"/>
+      <c r="T55" s="216"/>
+      <c r="U55" s="216"/>
+      <c r="V55" s="216"/>
+      <c r="W55" s="216"/>
+      <c r="X55" s="216"/>
+      <c r="Y55" s="216"/>
+      <c r="Z55" s="216"/>
+      <c r="AA55" s="216"/>
+      <c r="AB55" s="216"/>
+      <c r="AC55" s="216"/>
+      <c r="AD55" s="216"/>
+      <c r="AE55" s="216"/>
+      <c r="AF55" s="216"/>
+      <c r="AG55" s="216"/>
+      <c r="AH55" s="217"/>
     </row>
     <row r="56" spans="2:38" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="216"/>
-      <c r="C56" s="217"/>
-      <c r="D56" s="217"/>
-      <c r="E56" s="217"/>
-      <c r="F56" s="217"/>
-      <c r="G56" s="217"/>
-      <c r="H56" s="217"/>
-      <c r="I56" s="217"/>
-      <c r="J56" s="217"/>
-      <c r="K56" s="217"/>
-      <c r="L56" s="217"/>
-      <c r="M56" s="217"/>
-      <c r="N56" s="217"/>
-      <c r="O56" s="217"/>
-      <c r="P56" s="217"/>
-      <c r="Q56" s="217"/>
-      <c r="R56" s="217"/>
-      <c r="S56" s="217"/>
-      <c r="T56" s="217"/>
-      <c r="U56" s="217"/>
-      <c r="V56" s="217"/>
-      <c r="W56" s="217"/>
-      <c r="X56" s="217"/>
-      <c r="Y56" s="217"/>
-      <c r="Z56" s="217"/>
-      <c r="AA56" s="217"/>
-      <c r="AB56" s="217"/>
-      <c r="AC56" s="217"/>
-      <c r="AD56" s="217"/>
-      <c r="AE56" s="217"/>
-      <c r="AF56" s="217"/>
-      <c r="AG56" s="217"/>
-      <c r="AH56" s="218"/>
+      <c r="B56" s="203"/>
+      <c r="C56" s="204"/>
+      <c r="D56" s="204"/>
+      <c r="E56" s="204"/>
+      <c r="F56" s="204"/>
+      <c r="G56" s="204"/>
+      <c r="H56" s="204"/>
+      <c r="I56" s="204"/>
+      <c r="J56" s="204"/>
+      <c r="K56" s="204"/>
+      <c r="L56" s="204"/>
+      <c r="M56" s="204"/>
+      <c r="N56" s="204"/>
+      <c r="O56" s="204"/>
+      <c r="P56" s="204"/>
+      <c r="Q56" s="204"/>
+      <c r="R56" s="204"/>
+      <c r="S56" s="204"/>
+      <c r="T56" s="204"/>
+      <c r="U56" s="204"/>
+      <c r="V56" s="204"/>
+      <c r="W56" s="204"/>
+      <c r="X56" s="204"/>
+      <c r="Y56" s="204"/>
+      <c r="Z56" s="204"/>
+      <c r="AA56" s="204"/>
+      <c r="AB56" s="204"/>
+      <c r="AC56" s="204"/>
+      <c r="AD56" s="204"/>
+      <c r="AE56" s="204"/>
+      <c r="AF56" s="204"/>
+      <c r="AG56" s="204"/>
+      <c r="AH56" s="205"/>
     </row>
     <row r="57" spans="2:38" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="216"/>
-      <c r="C57" s="217"/>
-      <c r="D57" s="217"/>
-      <c r="E57" s="217"/>
-      <c r="F57" s="217"/>
-      <c r="G57" s="217"/>
-      <c r="H57" s="217"/>
-      <c r="I57" s="217"/>
-      <c r="J57" s="217"/>
-      <c r="K57" s="217"/>
-      <c r="L57" s="217"/>
-      <c r="M57" s="217"/>
-      <c r="N57" s="217"/>
-      <c r="O57" s="217"/>
-      <c r="P57" s="217"/>
-      <c r="Q57" s="217"/>
-      <c r="R57" s="217"/>
-      <c r="S57" s="217"/>
-      <c r="T57" s="217"/>
-      <c r="U57" s="217"/>
-      <c r="V57" s="217"/>
-      <c r="W57" s="217"/>
-      <c r="X57" s="217"/>
-      <c r="Y57" s="217"/>
-      <c r="Z57" s="217"/>
-      <c r="AA57" s="217"/>
-      <c r="AB57" s="217"/>
-      <c r="AC57" s="217"/>
-      <c r="AD57" s="217"/>
-      <c r="AE57" s="217"/>
-      <c r="AF57" s="217"/>
-      <c r="AG57" s="217"/>
-      <c r="AH57" s="218"/>
+      <c r="B57" s="203"/>
+      <c r="C57" s="204"/>
+      <c r="D57" s="204"/>
+      <c r="E57" s="204"/>
+      <c r="F57" s="204"/>
+      <c r="G57" s="204"/>
+      <c r="H57" s="204"/>
+      <c r="I57" s="204"/>
+      <c r="J57" s="204"/>
+      <c r="K57" s="204"/>
+      <c r="L57" s="204"/>
+      <c r="M57" s="204"/>
+      <c r="N57" s="204"/>
+      <c r="O57" s="204"/>
+      <c r="P57" s="204"/>
+      <c r="Q57" s="204"/>
+      <c r="R57" s="204"/>
+      <c r="S57" s="204"/>
+      <c r="T57" s="204"/>
+      <c r="U57" s="204"/>
+      <c r="V57" s="204"/>
+      <c r="W57" s="204"/>
+      <c r="X57" s="204"/>
+      <c r="Y57" s="204"/>
+      <c r="Z57" s="204"/>
+      <c r="AA57" s="204"/>
+      <c r="AB57" s="204"/>
+      <c r="AC57" s="204"/>
+      <c r="AD57" s="204"/>
+      <c r="AE57" s="204"/>
+      <c r="AF57" s="204"/>
+      <c r="AG57" s="204"/>
+      <c r="AH57" s="205"/>
     </row>
     <row r="58" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="216"/>
-      <c r="C58" s="217"/>
-      <c r="D58" s="217"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="217"/>
-      <c r="G58" s="217"/>
-      <c r="H58" s="217"/>
-      <c r="I58" s="217"/>
-      <c r="J58" s="217"/>
-      <c r="K58" s="217"/>
-      <c r="L58" s="217"/>
-      <c r="M58" s="217"/>
-      <c r="N58" s="217"/>
-      <c r="O58" s="217"/>
-      <c r="P58" s="217"/>
-      <c r="Q58" s="217"/>
-      <c r="R58" s="217"/>
-      <c r="S58" s="217"/>
-      <c r="T58" s="217"/>
-      <c r="U58" s="217"/>
-      <c r="V58" s="217"/>
-      <c r="W58" s="217"/>
-      <c r="X58" s="217"/>
-      <c r="Y58" s="217"/>
-      <c r="Z58" s="217"/>
-      <c r="AA58" s="217"/>
-      <c r="AB58" s="217"/>
-      <c r="AC58" s="217"/>
-      <c r="AD58" s="217"/>
-      <c r="AE58" s="217"/>
-      <c r="AF58" s="217"/>
-      <c r="AG58" s="217"/>
-      <c r="AH58" s="218"/>
+      <c r="B58" s="203"/>
+      <c r="C58" s="204"/>
+      <c r="D58" s="204"/>
+      <c r="E58" s="204"/>
+      <c r="F58" s="204"/>
+      <c r="G58" s="204"/>
+      <c r="H58" s="204"/>
+      <c r="I58" s="204"/>
+      <c r="J58" s="204"/>
+      <c r="K58" s="204"/>
+      <c r="L58" s="204"/>
+      <c r="M58" s="204"/>
+      <c r="N58" s="204"/>
+      <c r="O58" s="204"/>
+      <c r="P58" s="204"/>
+      <c r="Q58" s="204"/>
+      <c r="R58" s="204"/>
+      <c r="S58" s="204"/>
+      <c r="T58" s="204"/>
+      <c r="U58" s="204"/>
+      <c r="V58" s="204"/>
+      <c r="W58" s="204"/>
+      <c r="X58" s="204"/>
+      <c r="Y58" s="204"/>
+      <c r="Z58" s="204"/>
+      <c r="AA58" s="204"/>
+      <c r="AB58" s="204"/>
+      <c r="AC58" s="204"/>
+      <c r="AD58" s="204"/>
+      <c r="AE58" s="204"/>
+      <c r="AF58" s="204"/>
+      <c r="AG58" s="204"/>
+      <c r="AH58" s="205"/>
     </row>
     <row r="59" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="216"/>
-      <c r="C59" s="217"/>
-      <c r="D59" s="217"/>
-      <c r="E59" s="217"/>
-      <c r="F59" s="217"/>
-      <c r="G59" s="217"/>
-      <c r="H59" s="217"/>
-      <c r="I59" s="217"/>
-      <c r="J59" s="217"/>
-      <c r="K59" s="217"/>
-      <c r="L59" s="217"/>
-      <c r="M59" s="217"/>
-      <c r="N59" s="217"/>
-      <c r="O59" s="217"/>
-      <c r="P59" s="217"/>
-      <c r="Q59" s="217"/>
-      <c r="R59" s="217"/>
-      <c r="S59" s="217"/>
-      <c r="T59" s="217"/>
-      <c r="U59" s="217"/>
-      <c r="V59" s="217"/>
-      <c r="W59" s="217"/>
-      <c r="X59" s="217"/>
-      <c r="Y59" s="217"/>
-      <c r="Z59" s="217"/>
-      <c r="AA59" s="217"/>
-      <c r="AB59" s="217"/>
-      <c r="AC59" s="217"/>
-      <c r="AD59" s="217"/>
-      <c r="AE59" s="217"/>
-      <c r="AF59" s="217"/>
-      <c r="AG59" s="217"/>
-      <c r="AH59" s="218"/>
+      <c r="B59" s="203"/>
+      <c r="C59" s="204"/>
+      <c r="D59" s="204"/>
+      <c r="E59" s="204"/>
+      <c r="F59" s="204"/>
+      <c r="G59" s="204"/>
+      <c r="H59" s="204"/>
+      <c r="I59" s="204"/>
+      <c r="J59" s="204"/>
+      <c r="K59" s="204"/>
+      <c r="L59" s="204"/>
+      <c r="M59" s="204"/>
+      <c r="N59" s="204"/>
+      <c r="O59" s="204"/>
+      <c r="P59" s="204"/>
+      <c r="Q59" s="204"/>
+      <c r="R59" s="204"/>
+      <c r="S59" s="204"/>
+      <c r="T59" s="204"/>
+      <c r="U59" s="204"/>
+      <c r="V59" s="204"/>
+      <c r="W59" s="204"/>
+      <c r="X59" s="204"/>
+      <c r="Y59" s="204"/>
+      <c r="Z59" s="204"/>
+      <c r="AA59" s="204"/>
+      <c r="AB59" s="204"/>
+      <c r="AC59" s="204"/>
+      <c r="AD59" s="204"/>
+      <c r="AE59" s="204"/>
+      <c r="AF59" s="204"/>
+      <c r="AG59" s="204"/>
+      <c r="AH59" s="205"/>
     </row>
     <row r="60" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="209"/>
-      <c r="C60" s="210"/>
-      <c r="D60" s="210"/>
-      <c r="E60" s="210"/>
-      <c r="F60" s="210"/>
-      <c r="G60" s="210"/>
-      <c r="H60" s="210"/>
-      <c r="I60" s="210"/>
-      <c r="J60" s="210"/>
-      <c r="K60" s="210"/>
-      <c r="L60" s="210"/>
-      <c r="M60" s="210"/>
-      <c r="N60" s="210"/>
-      <c r="O60" s="210"/>
-      <c r="P60" s="210"/>
-      <c r="Q60" s="210"/>
-      <c r="R60" s="210"/>
-      <c r="S60" s="210"/>
-      <c r="T60" s="210"/>
-      <c r="U60" s="210"/>
-      <c r="V60" s="210"/>
-      <c r="W60" s="210"/>
-      <c r="X60" s="210"/>
-      <c r="Y60" s="210"/>
-      <c r="Z60" s="210"/>
-      <c r="AA60" s="210"/>
-      <c r="AB60" s="210"/>
-      <c r="AC60" s="210"/>
-      <c r="AD60" s="210"/>
-      <c r="AE60" s="210"/>
-      <c r="AF60" s="210"/>
-      <c r="AG60" s="210"/>
-      <c r="AH60" s="211"/>
+      <c r="B60" s="206"/>
+      <c r="C60" s="207"/>
+      <c r="D60" s="207"/>
+      <c r="E60" s="207"/>
+      <c r="F60" s="207"/>
+      <c r="G60" s="207"/>
+      <c r="H60" s="207"/>
+      <c r="I60" s="207"/>
+      <c r="J60" s="207"/>
+      <c r="K60" s="207"/>
+      <c r="L60" s="207"/>
+      <c r="M60" s="207"/>
+      <c r="N60" s="207"/>
+      <c r="O60" s="207"/>
+      <c r="P60" s="207"/>
+      <c r="Q60" s="207"/>
+      <c r="R60" s="207"/>
+      <c r="S60" s="207"/>
+      <c r="T60" s="207"/>
+      <c r="U60" s="207"/>
+      <c r="V60" s="207"/>
+      <c r="W60" s="207"/>
+      <c r="X60" s="207"/>
+      <c r="Y60" s="207"/>
+      <c r="Z60" s="207"/>
+      <c r="AA60" s="207"/>
+      <c r="AB60" s="207"/>
+      <c r="AC60" s="207"/>
+      <c r="AD60" s="207"/>
+      <c r="AE60" s="207"/>
+      <c r="AF60" s="207"/>
+      <c r="AG60" s="207"/>
+      <c r="AH60" s="208"/>
     </row>
     <row r="61" spans="2:38" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="229" t="s">
+      <c r="B61" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="230"/>
-      <c r="D61" s="230"/>
-      <c r="E61" s="231"/>
-      <c r="F61" s="235" t="s">
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="220"/>
+      <c r="F61" s="231" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="162"/>
-      <c r="H61" s="162"/>
-      <c r="I61" s="162"/>
-      <c r="J61" s="162"/>
-      <c r="K61" s="162"/>
-      <c r="L61" s="162"/>
-      <c r="M61" s="162"/>
-      <c r="N61" s="162"/>
-      <c r="O61" s="162"/>
-      <c r="P61" s="163"/>
-      <c r="Q61" s="229" t="s">
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="124"/>
+      <c r="K61" s="124"/>
+      <c r="L61" s="124"/>
+      <c r="M61" s="124"/>
+      <c r="N61" s="124"/>
+      <c r="O61" s="124"/>
+      <c r="P61" s="125"/>
+      <c r="Q61" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="R61" s="230"/>
-      <c r="S61" s="230"/>
-      <c r="T61" s="231"/>
-      <c r="U61" s="234" t="s">
+      <c r="R61" s="219"/>
+      <c r="S61" s="219"/>
+      <c r="T61" s="220"/>
+      <c r="U61" s="221" t="s">
         <v>106</v>
       </c>
-      <c r="V61" s="159"/>
-      <c r="W61" s="159"/>
-      <c r="X61" s="159"/>
-      <c r="Y61" s="159"/>
-      <c r="Z61" s="159"/>
-      <c r="AA61" s="159"/>
-      <c r="AB61" s="159"/>
-      <c r="AC61" s="159"/>
-      <c r="AD61" s="159"/>
-      <c r="AE61" s="159"/>
-      <c r="AF61" s="159"/>
-      <c r="AG61" s="159"/>
-      <c r="AH61" s="160"/>
+      <c r="V61" s="121"/>
+      <c r="W61" s="121"/>
+      <c r="X61" s="121"/>
+      <c r="Y61" s="121"/>
+      <c r="Z61" s="121"/>
+      <c r="AA61" s="121"/>
+      <c r="AB61" s="121"/>
+      <c r="AC61" s="121"/>
+      <c r="AD61" s="121"/>
+      <c r="AE61" s="121"/>
+      <c r="AF61" s="121"/>
+      <c r="AG61" s="121"/>
+      <c r="AH61" s="122"/>
     </row>
     <row r="62" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="229" t="s">
+      <c r="B62" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="230"/>
-      <c r="D62" s="230"/>
-      <c r="E62" s="230"/>
-      <c r="F62" s="230"/>
-      <c r="G62" s="230"/>
-      <c r="H62" s="230"/>
-      <c r="I62" s="230"/>
-      <c r="J62" s="230"/>
-      <c r="K62" s="230"/>
-      <c r="L62" s="230"/>
-      <c r="M62" s="230"/>
-      <c r="N62" s="230"/>
-      <c r="O62" s="230"/>
-      <c r="P62" s="230"/>
-      <c r="Q62" s="230"/>
-      <c r="R62" s="230"/>
-      <c r="S62" s="230"/>
-      <c r="T62" s="230"/>
-      <c r="U62" s="230"/>
-      <c r="V62" s="230"/>
-      <c r="W62" s="230"/>
-      <c r="X62" s="230"/>
-      <c r="Y62" s="230"/>
-      <c r="Z62" s="230"/>
-      <c r="AA62" s="230"/>
-      <c r="AB62" s="230"/>
-      <c r="AC62" s="230"/>
-      <c r="AD62" s="230"/>
-      <c r="AE62" s="230"/>
-      <c r="AF62" s="230"/>
-      <c r="AG62" s="230"/>
-      <c r="AH62" s="231"/>
+      <c r="C62" s="219"/>
+      <c r="D62" s="219"/>
+      <c r="E62" s="219"/>
+      <c r="F62" s="219"/>
+      <c r="G62" s="219"/>
+      <c r="H62" s="219"/>
+      <c r="I62" s="219"/>
+      <c r="J62" s="219"/>
+      <c r="K62" s="219"/>
+      <c r="L62" s="219"/>
+      <c r="M62" s="219"/>
+      <c r="N62" s="219"/>
+      <c r="O62" s="219"/>
+      <c r="P62" s="219"/>
+      <c r="Q62" s="219"/>
+      <c r="R62" s="219"/>
+      <c r="S62" s="219"/>
+      <c r="T62" s="219"/>
+      <c r="U62" s="219"/>
+      <c r="V62" s="219"/>
+      <c r="W62" s="219"/>
+      <c r="X62" s="219"/>
+      <c r="Y62" s="219"/>
+      <c r="Z62" s="219"/>
+      <c r="AA62" s="219"/>
+      <c r="AB62" s="219"/>
+      <c r="AC62" s="219"/>
+      <c r="AD62" s="219"/>
+      <c r="AE62" s="219"/>
+      <c r="AF62" s="219"/>
+      <c r="AG62" s="219"/>
+      <c r="AH62" s="220"/>
     </row>
     <row r="63" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="229" t="s">
+      <c r="B63" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="230"/>
-      <c r="D63" s="230"/>
-      <c r="E63" s="230"/>
-      <c r="F63" s="230"/>
-      <c r="G63" s="230"/>
-      <c r="H63" s="230"/>
-      <c r="I63" s="231"/>
-      <c r="J63" s="229" t="s">
+      <c r="C63" s="219"/>
+      <c r="D63" s="219"/>
+      <c r="E63" s="219"/>
+      <c r="F63" s="219"/>
+      <c r="G63" s="219"/>
+      <c r="H63" s="219"/>
+      <c r="I63" s="220"/>
+      <c r="J63" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="K63" s="231"/>
-      <c r="L63" s="229" t="s">
+      <c r="K63" s="220"/>
+      <c r="L63" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="M63" s="230"/>
-      <c r="N63" s="231"/>
-      <c r="O63" s="229" t="s">
+      <c r="M63" s="219"/>
+      <c r="N63" s="220"/>
+      <c r="O63" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="P63" s="231"/>
-      <c r="Q63" s="229" t="s">
+      <c r="P63" s="220"/>
+      <c r="Q63" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="R63" s="230"/>
-      <c r="S63" s="230"/>
-      <c r="T63" s="230"/>
-      <c r="U63" s="230"/>
-      <c r="V63" s="230"/>
-      <c r="W63" s="230"/>
-      <c r="X63" s="230"/>
-      <c r="Y63" s="230"/>
-      <c r="Z63" s="230"/>
-      <c r="AA63" s="230"/>
-      <c r="AB63" s="230"/>
-      <c r="AC63" s="230"/>
-      <c r="AD63" s="230"/>
-      <c r="AE63" s="230"/>
-      <c r="AF63" s="230"/>
-      <c r="AG63" s="230"/>
-      <c r="AH63" s="231"/>
+      <c r="R63" s="219"/>
+      <c r="S63" s="219"/>
+      <c r="T63" s="219"/>
+      <c r="U63" s="219"/>
+      <c r="V63" s="219"/>
+      <c r="W63" s="219"/>
+      <c r="X63" s="219"/>
+      <c r="Y63" s="219"/>
+      <c r="Z63" s="219"/>
+      <c r="AA63" s="219"/>
+      <c r="AB63" s="219"/>
+      <c r="AC63" s="219"/>
+      <c r="AD63" s="219"/>
+      <c r="AE63" s="219"/>
+      <c r="AF63" s="219"/>
+      <c r="AG63" s="219"/>
+      <c r="AH63" s="220"/>
     </row>
     <row r="64" spans="2:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="234" t="s">
+      <c r="B64" s="221" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="159"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="159"/>
-      <c r="F64" s="159"/>
-      <c r="G64" s="159"/>
-      <c r="H64" s="159"/>
-      <c r="I64" s="160"/>
-      <c r="J64" s="158" t="s">
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="121"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="121"/>
+      <c r="H64" s="121"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="K64" s="160"/>
-      <c r="L64" s="235" t="s">
+      <c r="K64" s="122"/>
+      <c r="L64" s="231" t="s">
         <v>108</v>
       </c>
-      <c r="M64" s="162"/>
-      <c r="N64" s="163"/>
-      <c r="O64" s="236" t="s">
+      <c r="M64" s="124"/>
+      <c r="N64" s="125"/>
+      <c r="O64" s="227" t="s">
         <v>65</v>
       </c>
-      <c r="P64" s="237"/>
-      <c r="Q64" s="234" t="s">
+      <c r="P64" s="228"/>
+      <c r="Q64" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="R64" s="159"/>
-      <c r="S64" s="159"/>
-      <c r="T64" s="159"/>
-      <c r="U64" s="159"/>
-      <c r="V64" s="159"/>
-      <c r="W64" s="159"/>
-      <c r="X64" s="159"/>
-      <c r="Y64" s="159"/>
-      <c r="Z64" s="159"/>
-      <c r="AA64" s="159"/>
-      <c r="AB64" s="159"/>
-      <c r="AC64" s="159"/>
-      <c r="AD64" s="159"/>
-      <c r="AE64" s="159"/>
-      <c r="AF64" s="159"/>
-      <c r="AG64" s="159"/>
-      <c r="AH64" s="160"/>
+      <c r="R64" s="121"/>
+      <c r="S64" s="121"/>
+      <c r="T64" s="121"/>
+      <c r="U64" s="121"/>
+      <c r="V64" s="121"/>
+      <c r="W64" s="121"/>
+      <c r="X64" s="121"/>
+      <c r="Y64" s="121"/>
+      <c r="Z64" s="121"/>
+      <c r="AA64" s="121"/>
+      <c r="AB64" s="121"/>
+      <c r="AC64" s="121"/>
+      <c r="AD64" s="121"/>
+      <c r="AE64" s="121"/>
+      <c r="AF64" s="121"/>
+      <c r="AG64" s="121"/>
+      <c r="AH64" s="122"/>
     </row>
     <row r="65" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="229" t="s">
+      <c r="B65" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="230"/>
-      <c r="D65" s="230"/>
-      <c r="E65" s="230"/>
-      <c r="F65" s="230"/>
-      <c r="G65" s="230"/>
-      <c r="H65" s="230"/>
-      <c r="I65" s="230"/>
-      <c r="J65" s="230"/>
-      <c r="K65" s="230"/>
-      <c r="L65" s="230"/>
-      <c r="M65" s="230"/>
-      <c r="N65" s="230"/>
-      <c r="O65" s="230"/>
-      <c r="P65" s="230"/>
-      <c r="Q65" s="230"/>
-      <c r="R65" s="230"/>
-      <c r="S65" s="230"/>
-      <c r="T65" s="230"/>
-      <c r="U65" s="230"/>
-      <c r="V65" s="230"/>
-      <c r="W65" s="230"/>
-      <c r="X65" s="230"/>
-      <c r="Y65" s="230"/>
-      <c r="Z65" s="230"/>
-      <c r="AA65" s="230"/>
-      <c r="AB65" s="230"/>
-      <c r="AC65" s="230"/>
-      <c r="AD65" s="230"/>
-      <c r="AE65" s="230"/>
-      <c r="AF65" s="230"/>
-      <c r="AG65" s="230"/>
-      <c r="AH65" s="231"/>
+      <c r="C65" s="219"/>
+      <c r="D65" s="219"/>
+      <c r="E65" s="219"/>
+      <c r="F65" s="219"/>
+      <c r="G65" s="219"/>
+      <c r="H65" s="219"/>
+      <c r="I65" s="219"/>
+      <c r="J65" s="219"/>
+      <c r="K65" s="219"/>
+      <c r="L65" s="219"/>
+      <c r="M65" s="219"/>
+      <c r="N65" s="219"/>
+      <c r="O65" s="219"/>
+      <c r="P65" s="219"/>
+      <c r="Q65" s="219"/>
+      <c r="R65" s="219"/>
+      <c r="S65" s="219"/>
+      <c r="T65" s="219"/>
+      <c r="U65" s="219"/>
+      <c r="V65" s="219"/>
+      <c r="W65" s="219"/>
+      <c r="X65" s="219"/>
+      <c r="Y65" s="219"/>
+      <c r="Z65" s="219"/>
+      <c r="AA65" s="219"/>
+      <c r="AB65" s="219"/>
+      <c r="AC65" s="219"/>
+      <c r="AD65" s="219"/>
+      <c r="AE65" s="219"/>
+      <c r="AF65" s="219"/>
+      <c r="AG65" s="219"/>
+      <c r="AH65" s="220"/>
     </row>
     <row r="66" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="229" t="s">
+      <c r="B66" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="230"/>
-      <c r="D66" s="230"/>
-      <c r="E66" s="230"/>
-      <c r="F66" s="230"/>
-      <c r="G66" s="230"/>
-      <c r="H66" s="230"/>
-      <c r="I66" s="231"/>
+      <c r="C66" s="219"/>
+      <c r="D66" s="219"/>
+      <c r="E66" s="219"/>
+      <c r="F66" s="219"/>
+      <c r="G66" s="219"/>
+      <c r="H66" s="219"/>
+      <c r="I66" s="220"/>
       <c r="J66" s="82" t="s">
         <v>31</v>
       </c>
@@ -9042,187 +9042,187 @@
       <c r="M66" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="N66" s="229" t="s">
+      <c r="N66" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="O66" s="230"/>
-      <c r="P66" s="230"/>
-      <c r="Q66" s="230"/>
-      <c r="R66" s="230"/>
-      <c r="S66" s="230"/>
-      <c r="T66" s="230"/>
-      <c r="U66" s="230"/>
-      <c r="V66" s="230"/>
-      <c r="W66" s="230"/>
-      <c r="X66" s="230"/>
-      <c r="Y66" s="230"/>
-      <c r="Z66" s="230"/>
-      <c r="AA66" s="230"/>
-      <c r="AB66" s="230"/>
-      <c r="AC66" s="230"/>
-      <c r="AD66" s="230"/>
-      <c r="AE66" s="230"/>
-      <c r="AF66" s="230"/>
-      <c r="AG66" s="230"/>
-      <c r="AH66" s="231"/>
+      <c r="O66" s="219"/>
+      <c r="P66" s="219"/>
+      <c r="Q66" s="219"/>
+      <c r="R66" s="219"/>
+      <c r="S66" s="219"/>
+      <c r="T66" s="219"/>
+      <c r="U66" s="219"/>
+      <c r="V66" s="219"/>
+      <c r="W66" s="219"/>
+      <c r="X66" s="219"/>
+      <c r="Y66" s="219"/>
+      <c r="Z66" s="219"/>
+      <c r="AA66" s="219"/>
+      <c r="AB66" s="219"/>
+      <c r="AC66" s="219"/>
+      <c r="AD66" s="219"/>
+      <c r="AE66" s="219"/>
+      <c r="AF66" s="219"/>
+      <c r="AG66" s="219"/>
+      <c r="AH66" s="220"/>
     </row>
     <row r="67" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="232" t="s">
+      <c r="B67" s="229" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="233"/>
-      <c r="D67" s="233"/>
-      <c r="E67" s="233"/>
-      <c r="F67" s="233"/>
-      <c r="G67" s="233"/>
-      <c r="H67" s="233"/>
-      <c r="I67" s="233"/>
+      <c r="C67" s="230"/>
+      <c r="D67" s="230"/>
+      <c r="E67" s="230"/>
+      <c r="F67" s="230"/>
+      <c r="G67" s="230"/>
+      <c r="H67" s="230"/>
+      <c r="I67" s="230"/>
       <c r="J67" s="91"/>
       <c r="K67" s="91"/>
       <c r="L67" s="91"/>
       <c r="M67" s="91"/>
-      <c r="N67" s="158"/>
-      <c r="O67" s="159"/>
-      <c r="P67" s="159"/>
-      <c r="Q67" s="159"/>
-      <c r="R67" s="159"/>
-      <c r="S67" s="159"/>
-      <c r="T67" s="159"/>
-      <c r="U67" s="159"/>
-      <c r="V67" s="159"/>
-      <c r="W67" s="159"/>
-      <c r="X67" s="159"/>
-      <c r="Y67" s="159"/>
-      <c r="Z67" s="159"/>
-      <c r="AA67" s="159"/>
-      <c r="AB67" s="159"/>
-      <c r="AC67" s="159"/>
-      <c r="AD67" s="159"/>
-      <c r="AE67" s="159"/>
-      <c r="AF67" s="159"/>
-      <c r="AG67" s="159"/>
-      <c r="AH67" s="160"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="121"/>
+      <c r="P67" s="121"/>
+      <c r="Q67" s="121"/>
+      <c r="R67" s="121"/>
+      <c r="S67" s="121"/>
+      <c r="T67" s="121"/>
+      <c r="U67" s="121"/>
+      <c r="V67" s="121"/>
+      <c r="W67" s="121"/>
+      <c r="X67" s="121"/>
+      <c r="Y67" s="121"/>
+      <c r="Z67" s="121"/>
+      <c r="AA67" s="121"/>
+      <c r="AB67" s="121"/>
+      <c r="AC67" s="121"/>
+      <c r="AD67" s="121"/>
+      <c r="AE67" s="121"/>
+      <c r="AF67" s="121"/>
+      <c r="AG67" s="121"/>
+      <c r="AH67" s="122"/>
     </row>
     <row r="68" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="229" t="s">
+      <c r="B68" s="218" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="230"/>
-      <c r="D68" s="230"/>
-      <c r="E68" s="230"/>
-      <c r="F68" s="230"/>
-      <c r="G68" s="230"/>
-      <c r="H68" s="230"/>
-      <c r="I68" s="230"/>
-      <c r="J68" s="230"/>
-      <c r="K68" s="230"/>
-      <c r="L68" s="230"/>
-      <c r="M68" s="230"/>
-      <c r="N68" s="230"/>
-      <c r="O68" s="230"/>
-      <c r="P68" s="230"/>
-      <c r="Q68" s="230"/>
-      <c r="R68" s="230"/>
-      <c r="S68" s="230"/>
-      <c r="T68" s="230"/>
-      <c r="U68" s="230"/>
-      <c r="V68" s="230"/>
-      <c r="W68" s="230"/>
-      <c r="X68" s="230"/>
-      <c r="Y68" s="230"/>
-      <c r="Z68" s="230"/>
-      <c r="AA68" s="230"/>
-      <c r="AB68" s="230"/>
-      <c r="AC68" s="230"/>
-      <c r="AD68" s="230"/>
-      <c r="AE68" s="230"/>
-      <c r="AF68" s="230"/>
-      <c r="AG68" s="230"/>
-      <c r="AH68" s="231"/>
+      <c r="C68" s="219"/>
+      <c r="D68" s="219"/>
+      <c r="E68" s="219"/>
+      <c r="F68" s="219"/>
+      <c r="G68" s="219"/>
+      <c r="H68" s="219"/>
+      <c r="I68" s="219"/>
+      <c r="J68" s="219"/>
+      <c r="K68" s="219"/>
+      <c r="L68" s="219"/>
+      <c r="M68" s="219"/>
+      <c r="N68" s="219"/>
+      <c r="O68" s="219"/>
+      <c r="P68" s="219"/>
+      <c r="Q68" s="219"/>
+      <c r="R68" s="219"/>
+      <c r="S68" s="219"/>
+      <c r="T68" s="219"/>
+      <c r="U68" s="219"/>
+      <c r="V68" s="219"/>
+      <c r="W68" s="219"/>
+      <c r="X68" s="219"/>
+      <c r="Y68" s="219"/>
+      <c r="Z68" s="219"/>
+      <c r="AA68" s="219"/>
+      <c r="AB68" s="219"/>
+      <c r="AC68" s="219"/>
+      <c r="AD68" s="219"/>
+      <c r="AE68" s="219"/>
+      <c r="AF68" s="219"/>
+      <c r="AG68" s="219"/>
+      <c r="AH68" s="220"/>
     </row>
     <row r="69" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="227" t="s">
+      <c r="B69" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="228"/>
-      <c r="D69" s="229" t="s">
+      <c r="C69" s="223"/>
+      <c r="D69" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="230"/>
-      <c r="F69" s="230"/>
-      <c r="G69" s="230"/>
-      <c r="H69" s="230"/>
-      <c r="I69" s="230"/>
-      <c r="J69" s="231"/>
-      <c r="K69" s="229" t="s">
+      <c r="E69" s="219"/>
+      <c r="F69" s="219"/>
+      <c r="G69" s="219"/>
+      <c r="H69" s="219"/>
+      <c r="I69" s="219"/>
+      <c r="J69" s="220"/>
+      <c r="K69" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="L69" s="230"/>
-      <c r="M69" s="230"/>
-      <c r="N69" s="230"/>
-      <c r="O69" s="231"/>
-      <c r="P69" s="229" t="s">
+      <c r="L69" s="219"/>
+      <c r="M69" s="219"/>
+      <c r="N69" s="219"/>
+      <c r="O69" s="220"/>
+      <c r="P69" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="Q69" s="230"/>
-      <c r="R69" s="231"/>
-      <c r="S69" s="229" t="s">
+      <c r="Q69" s="219"/>
+      <c r="R69" s="220"/>
+      <c r="S69" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="T69" s="230"/>
-      <c r="U69" s="230"/>
-      <c r="V69" s="230"/>
-      <c r="W69" s="231"/>
-      <c r="X69" s="229" t="s">
+      <c r="T69" s="219"/>
+      <c r="U69" s="219"/>
+      <c r="V69" s="219"/>
+      <c r="W69" s="220"/>
+      <c r="X69" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="Y69" s="230"/>
-      <c r="Z69" s="230"/>
-      <c r="AA69" s="230"/>
-      <c r="AB69" s="230"/>
-      <c r="AC69" s="230"/>
-      <c r="AD69" s="230"/>
-      <c r="AE69" s="230"/>
-      <c r="AF69" s="230"/>
-      <c r="AG69" s="230"/>
-      <c r="AH69" s="231"/>
+      <c r="Y69" s="219"/>
+      <c r="Z69" s="219"/>
+      <c r="AA69" s="219"/>
+      <c r="AB69" s="219"/>
+      <c r="AC69" s="219"/>
+      <c r="AD69" s="219"/>
+      <c r="AE69" s="219"/>
+      <c r="AF69" s="219"/>
+      <c r="AG69" s="219"/>
+      <c r="AH69" s="220"/>
     </row>
     <row r="70" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B70" s="207" t="s">
+      <c r="B70" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="208"/>
-      <c r="D70" s="161"/>
-      <c r="E70" s="162"/>
-      <c r="F70" s="162"/>
-      <c r="G70" s="162"/>
-      <c r="H70" s="162"/>
-      <c r="I70" s="162"/>
-      <c r="J70" s="163"/>
-      <c r="K70" s="161"/>
-      <c r="L70" s="162"/>
-      <c r="M70" s="162"/>
-      <c r="N70" s="162"/>
-      <c r="O70" s="163"/>
-      <c r="P70" s="161"/>
-      <c r="Q70" s="162"/>
-      <c r="R70" s="163"/>
-      <c r="S70" s="161"/>
-      <c r="T70" s="162"/>
-      <c r="U70" s="162"/>
-      <c r="V70" s="162"/>
-      <c r="W70" s="163"/>
-      <c r="X70" s="161"/>
-      <c r="Y70" s="162"/>
-      <c r="Z70" s="162"/>
-      <c r="AA70" s="162"/>
-      <c r="AB70" s="162"/>
-      <c r="AC70" s="162"/>
-      <c r="AD70" s="162"/>
-      <c r="AE70" s="162"/>
-      <c r="AF70" s="162"/>
-      <c r="AG70" s="162"/>
-      <c r="AH70" s="163"/>
+      <c r="C70" s="249"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="124"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="123"/>
+      <c r="L70" s="124"/>
+      <c r="M70" s="124"/>
+      <c r="N70" s="124"/>
+      <c r="O70" s="125"/>
+      <c r="P70" s="123"/>
+      <c r="Q70" s="124"/>
+      <c r="R70" s="125"/>
+      <c r="S70" s="123"/>
+      <c r="T70" s="124"/>
+      <c r="U70" s="124"/>
+      <c r="V70" s="124"/>
+      <c r="W70" s="125"/>
+      <c r="X70" s="123"/>
+      <c r="Y70" s="124"/>
+      <c r="Z70" s="124"/>
+      <c r="AA70" s="124"/>
+      <c r="AB70" s="124"/>
+      <c r="AC70" s="124"/>
+      <c r="AD70" s="124"/>
+      <c r="AE70" s="124"/>
+      <c r="AF70" s="124"/>
+      <c r="AG70" s="124"/>
+      <c r="AH70" s="125"/>
       <c r="AI70" s="22"/>
     </row>
     <row r="71" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9300,17 +9300,17 @@
       <c r="AD72" s="225"/>
       <c r="AE72" s="225"/>
       <c r="AF72" s="226"/>
-      <c r="AG72" s="227" t="s">
+      <c r="AG72" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AH72" s="228"/>
+      <c r="AH72" s="223"/>
       <c r="AI72" s="23"/>
       <c r="AJ72" s="23"/>
       <c r="AK72" s="23"/>
     </row>
     <row r="73" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="98" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C73" s="83"/>
       <c r="D73" s="83"/>
@@ -9334,16 +9334,16 @@
       <c r="V73" s="83"/>
       <c r="W73" s="83"/>
       <c r="X73" s="84"/>
-      <c r="Y73" s="219"/>
-      <c r="Z73" s="220"/>
-      <c r="AA73" s="221"/>
-      <c r="AB73" s="219"/>
-      <c r="AC73" s="220"/>
-      <c r="AD73" s="220"/>
-      <c r="AE73" s="220"/>
-      <c r="AF73" s="221"/>
-      <c r="AG73" s="222"/>
-      <c r="AH73" s="223"/>
+      <c r="Y73" s="215"/>
+      <c r="Z73" s="216"/>
+      <c r="AA73" s="217"/>
+      <c r="AB73" s="215"/>
+      <c r="AC73" s="216"/>
+      <c r="AD73" s="216"/>
+      <c r="AE73" s="216"/>
+      <c r="AF73" s="217"/>
+      <c r="AG73" s="209"/>
+      <c r="AH73" s="210"/>
     </row>
     <row r="74" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="85"/>
@@ -9369,16 +9369,16 @@
       <c r="V74" s="86"/>
       <c r="W74" s="86"/>
       <c r="X74" s="87"/>
-      <c r="Y74" s="216"/>
-      <c r="Z74" s="217"/>
-      <c r="AA74" s="218"/>
-      <c r="AB74" s="216"/>
-      <c r="AC74" s="217"/>
-      <c r="AD74" s="217"/>
-      <c r="AE74" s="217"/>
-      <c r="AF74" s="218"/>
-      <c r="AG74" s="214"/>
-      <c r="AH74" s="215"/>
+      <c r="Y74" s="203"/>
+      <c r="Z74" s="204"/>
+      <c r="AA74" s="205"/>
+      <c r="AB74" s="203"/>
+      <c r="AC74" s="204"/>
+      <c r="AD74" s="204"/>
+      <c r="AE74" s="204"/>
+      <c r="AF74" s="205"/>
+      <c r="AG74" s="211"/>
+      <c r="AH74" s="212"/>
     </row>
     <row r="75" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="85"/>
@@ -9404,16 +9404,16 @@
       <c r="V75" s="86"/>
       <c r="W75" s="86"/>
       <c r="X75" s="87"/>
-      <c r="Y75" s="216"/>
-      <c r="Z75" s="217"/>
-      <c r="AA75" s="218"/>
-      <c r="AB75" s="216"/>
-      <c r="AC75" s="217"/>
-      <c r="AD75" s="217"/>
-      <c r="AE75" s="217"/>
-      <c r="AF75" s="218"/>
-      <c r="AG75" s="214"/>
-      <c r="AH75" s="215"/>
+      <c r="Y75" s="203"/>
+      <c r="Z75" s="204"/>
+      <c r="AA75" s="205"/>
+      <c r="AB75" s="203"/>
+      <c r="AC75" s="204"/>
+      <c r="AD75" s="204"/>
+      <c r="AE75" s="204"/>
+      <c r="AF75" s="205"/>
+      <c r="AG75" s="211"/>
+      <c r="AH75" s="212"/>
     </row>
     <row r="76" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="85"/>
@@ -9439,16 +9439,16 @@
       <c r="V76" s="86"/>
       <c r="W76" s="86"/>
       <c r="X76" s="87"/>
-      <c r="Y76" s="216"/>
-      <c r="Z76" s="217"/>
-      <c r="AA76" s="218"/>
-      <c r="AB76" s="216"/>
-      <c r="AC76" s="217"/>
-      <c r="AD76" s="217"/>
-      <c r="AE76" s="217"/>
-      <c r="AF76" s="218"/>
-      <c r="AG76" s="214"/>
-      <c r="AH76" s="215"/>
+      <c r="Y76" s="203"/>
+      <c r="Z76" s="204"/>
+      <c r="AA76" s="205"/>
+      <c r="AB76" s="203"/>
+      <c r="AC76" s="204"/>
+      <c r="AD76" s="204"/>
+      <c r="AE76" s="204"/>
+      <c r="AF76" s="205"/>
+      <c r="AG76" s="211"/>
+      <c r="AH76" s="212"/>
     </row>
     <row r="77" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="85"/>
@@ -9474,16 +9474,16 @@
       <c r="V77" s="86"/>
       <c r="W77" s="86"/>
       <c r="X77" s="87"/>
-      <c r="Y77" s="216"/>
-      <c r="Z77" s="217"/>
-      <c r="AA77" s="218"/>
-      <c r="AB77" s="216"/>
-      <c r="AC77" s="217"/>
-      <c r="AD77" s="217"/>
-      <c r="AE77" s="217"/>
-      <c r="AF77" s="218"/>
-      <c r="AG77" s="214"/>
-      <c r="AH77" s="215"/>
+      <c r="Y77" s="203"/>
+      <c r="Z77" s="204"/>
+      <c r="AA77" s="205"/>
+      <c r="AB77" s="203"/>
+      <c r="AC77" s="204"/>
+      <c r="AD77" s="204"/>
+      <c r="AE77" s="204"/>
+      <c r="AF77" s="205"/>
+      <c r="AG77" s="211"/>
+      <c r="AH77" s="212"/>
     </row>
     <row r="78" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="88"/>
@@ -9509,16 +9509,16 @@
       <c r="V78" s="89"/>
       <c r="W78" s="89"/>
       <c r="X78" s="90"/>
-      <c r="Y78" s="209"/>
-      <c r="Z78" s="210"/>
-      <c r="AA78" s="211"/>
-      <c r="AB78" s="209"/>
-      <c r="AC78" s="210"/>
-      <c r="AD78" s="210"/>
-      <c r="AE78" s="210"/>
-      <c r="AF78" s="211"/>
-      <c r="AG78" s="212"/>
-      <c r="AH78" s="213"/>
+      <c r="Y78" s="206"/>
+      <c r="Z78" s="207"/>
+      <c r="AA78" s="208"/>
+      <c r="AB78" s="206"/>
+      <c r="AC78" s="207"/>
+      <c r="AD78" s="207"/>
+      <c r="AE78" s="207"/>
+      <c r="AF78" s="208"/>
+      <c r="AG78" s="213"/>
+      <c r="AH78" s="214"/>
     </row>
     <row r="79" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="80" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9526,22 +9526,147 @@
     <row r="82" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="AB50:AF50"/>
-    <mergeCell ref="AB51:AF51"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="AB78:AF78"/>
+    <mergeCell ref="AG78:AH78"/>
+    <mergeCell ref="X24:AH24"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="AB76:AF76"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="AB77:AF77"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="AB73:AF73"/>
+    <mergeCell ref="AG73:AH73"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="AB74:AF74"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="AB75:AF75"/>
+    <mergeCell ref="AG75:AH75"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:J70"/>
+    <mergeCell ref="K70:O70"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:W70"/>
+    <mergeCell ref="X70:AH70"/>
+    <mergeCell ref="B72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="AB72:AF72"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="B65:AH65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="N66:AH66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="N67:AH67"/>
+    <mergeCell ref="B68:AH68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:W69"/>
+    <mergeCell ref="X69:AH69"/>
+    <mergeCell ref="B62:AH62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:AH63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:AH64"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:U53"/>
+    <mergeCell ref="V53:Y53"/>
+    <mergeCell ref="Z53:AH53"/>
+    <mergeCell ref="B54:AH54"/>
+    <mergeCell ref="B55:AH60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:P61"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="U61:AH61"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:P13"/>
+    <mergeCell ref="B14:AH14"/>
+    <mergeCell ref="Q15:AH15"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="B6:AH6"/>
+    <mergeCell ref="B7:AH12"/>
+    <mergeCell ref="U13:AH13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="N21:AH21"/>
+    <mergeCell ref="Q17:AH17"/>
+    <mergeCell ref="Q18:AH18"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AF26"/>
+    <mergeCell ref="B26:X26"/>
+    <mergeCell ref="Q16:AH16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B22:AH22"/>
+    <mergeCell ref="X23:AH23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B19:AH19"/>
+    <mergeCell ref="N20:AH20"/>
     <mergeCell ref="Y48:AA48"/>
     <mergeCell ref="Y49:AA49"/>
     <mergeCell ref="Y50:AA50"/>
@@ -9566,147 +9691,22 @@
     <mergeCell ref="Y27:AA27"/>
     <mergeCell ref="Y28:AA28"/>
     <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AF26"/>
-    <mergeCell ref="B26:X26"/>
-    <mergeCell ref="Q16:AH16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B22:AH22"/>
-    <mergeCell ref="X23:AH23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B19:AH19"/>
-    <mergeCell ref="N20:AH20"/>
-    <mergeCell ref="N21:AH21"/>
-    <mergeCell ref="Q17:AH17"/>
-    <mergeCell ref="Q18:AH18"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:P13"/>
-    <mergeCell ref="B14:AH14"/>
-    <mergeCell ref="Q15:AH15"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="B6:AH6"/>
-    <mergeCell ref="B7:AH12"/>
-    <mergeCell ref="U13:AH13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:U53"/>
-    <mergeCell ref="V53:Y53"/>
-    <mergeCell ref="Z53:AH53"/>
-    <mergeCell ref="B54:AH54"/>
-    <mergeCell ref="B55:AH60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="F61:P61"/>
-    <mergeCell ref="Q61:T61"/>
-    <mergeCell ref="U61:AH61"/>
-    <mergeCell ref="B62:AH62"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:AH63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:AH64"/>
-    <mergeCell ref="B65:AH65"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="N66:AH66"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="N67:AH67"/>
-    <mergeCell ref="B68:AH68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:W69"/>
-    <mergeCell ref="X69:AH69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:J70"/>
-    <mergeCell ref="K70:O70"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:W70"/>
-    <mergeCell ref="X70:AH70"/>
-    <mergeCell ref="B72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="AB72:AF72"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="AB76:AF76"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="AB77:AF77"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="AB73:AF73"/>
-    <mergeCell ref="AG73:AH73"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="AB74:AF74"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="AB75:AF75"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="AB78:AF78"/>
-    <mergeCell ref="AG78:AH78"/>
-    <mergeCell ref="X24:AH24"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AB50:AF50"/>
+    <mergeCell ref="AB51:AF51"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AG51:AH51"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="2">
